--- a/tests/Tabla testeos.xlsx
+++ b/tests/Tabla testeos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\dh_ejercicios\Q4\PI\grupo-05\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c1c538a99f55e7a/Documents/Certified_Tech_Developer/Anio_I/Bimestre_04/grupo-05/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_BEEDF5FD9CDAC0A1D58D79ABBDA8FD73A4B49ED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{713E723B-B207-4394-8EE3-B18D2693143E}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="18900" windowHeight="7305" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template - CP Limpio" sheetId="6" r:id="rId1"/>
@@ -804,9 +805,6 @@
     </r>
   </si>
   <si>
-    <t>Visualizar el home de Rivolt Rentals</t>
-  </si>
-  <si>
     <t>Ingresar mail (xx@xx) y contraseña (xx)</t>
   </si>
   <si>
@@ -858,9 +856,6 @@
     <t>Dar click al icono de "Facebook"</t>
   </si>
   <si>
-    <t>Redirige a pagina Facebook de Rivolt Rentals</t>
-  </si>
-  <si>
     <t>RS2</t>
   </si>
   <si>
@@ -882,19 +877,10 @@
     <t>Dar click al icono de "Linkedin"</t>
   </si>
   <si>
-    <t>Redirige a pagina Linkedin de Rivolt Rentals</t>
-  </si>
-  <si>
     <t>Dar click al icono de "Twitter"</t>
   </si>
   <si>
-    <t>Redirige a paginaTwitter de Rivolt Rentals</t>
-  </si>
-  <si>
     <t>Dar click al icono de "Instagram"</t>
-  </si>
-  <si>
-    <t>Redirige a pagina Instagram de Rivolt Rentals</t>
   </si>
   <si>
     <t>En campo Nombre ingreso "Juan"</t>
@@ -1133,11 +1119,26 @@
   <si>
     <t>pensar verificación!!!</t>
   </si>
+  <si>
+    <t>Visualizar el home de Revolt Rentals</t>
+  </si>
+  <si>
+    <t>Redirige a pagina Facebook de Revolt Rentals</t>
+  </si>
+  <si>
+    <t>Redirige a pagina Linkedin de Revolt Rentals</t>
+  </si>
+  <si>
+    <t>Redirige a paginaTwitter de Revolt Rentals</t>
+  </si>
+  <si>
+    <t>Redirige a pagina Instagram de Revolt Rentals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1553,27 +1554,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1585,94 +1634,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1784,7 +1785,13 @@
     <xdr:ext cx="219075" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg"/>
+        <xdr:cNvPr id="2" name="image1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2002,20 +2009,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J1076"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A111" sqref="A111:A114"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="38" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="38" customWidth="1"/>
@@ -2031,38 +2038,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="54" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2072,21 +2079,21 @@
       <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="41"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>119</v>
       </c>
       <c r="E3" s="27">
@@ -2096,62 +2103,62 @@
         <v>120</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="J3" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="47"/>
       <c r="E4" s="27">
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="43"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="47"/>
       <c r="E5" s="27">
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="81" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="43"/>
+        <v>179</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="51"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="43"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>124</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>125</v>
       </c>
       <c r="E6" s="27">
         <v>1</v>
@@ -2160,44 +2167,44 @@
         <v>120</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="47"/>
       <c r="E7" s="27">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="43"/>
+        <v>152</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>125</v>
+      <c r="D8" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="E8" s="27">
         <v>1</v>
@@ -2206,182 +2213,182 @@
         <v>120</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="J8" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="47"/>
       <c r="E9" s="27">
         <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="43"/>
+        <v>152</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="49" t="s">
+      <c r="A10" s="52" t="s">
         <v>187</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>182</v>
       </c>
       <c r="E10" s="27">
         <v>1</v>
       </c>
-      <c r="F10" s="78" t="s">
-        <v>188</v>
+      <c r="F10" s="40" t="s">
+        <v>183</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="42"/>
+        <v>184</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="47"/>
       <c r="E11" s="27">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>187</v>
+      <c r="C12" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>182</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
       </c>
-      <c r="F12" s="78" t="s">
-        <v>188</v>
+      <c r="F12" s="40" t="s">
+        <v>183</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" s="42"/>
+        <v>184</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="47"/>
       <c r="E13" s="27">
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>187</v>
+      <c r="D14" s="53" t="s">
+        <v>182</v>
       </c>
       <c r="E14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="78" t="s">
-        <v>188</v>
+      <c r="F14" s="40" t="s">
+        <v>183</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="50"/>
+        <v>184</v>
+      </c>
+      <c r="H14" s="54"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="42"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="47"/>
       <c r="E15" s="27">
         <v>2</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>200</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="J15" s="43"/>
-    </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>205</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -2390,41 +2397,41 @@
         <v>120</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="50"/>
+        <v>226</v>
+      </c>
+      <c r="H16" s="54"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="42"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="47"/>
       <c r="E17" s="27">
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H17" s="43"/>
+        <v>202</v>
+      </c>
+      <c r="H17" s="51"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="43"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="C18" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="27">
         <v>1</v>
       </c>
@@ -2432,43 +2439,43 @@
         <v>120</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="J18" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="47"/>
       <c r="E19" s="27">
         <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="49"/>
+      <c r="B20" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="53"/>
       <c r="E20" s="27">
         <v>1</v>
       </c>
@@ -2476,43 +2483,43 @@
         <v>120</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="J20" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="47"/>
       <c r="E21" s="27">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="43"/>
+        <v>228</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="49"/>
+      <c r="A22" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="53"/>
       <c r="E22" s="27">
         <v>1</v>
       </c>
@@ -2520,43 +2527,43 @@
         <v>120</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="J22" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="47"/>
       <c r="E23" s="27">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="43"/>
+        <v>229</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="51"/>
     </row>
     <row r="24" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="A24" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="53"/>
       <c r="E24" s="27">
         <v>1</v>
       </c>
@@ -2564,44 +2571,44 @@
         <v>120</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="J24" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H24" s="54"/>
+      <c r="I24" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="47"/>
       <c r="E25" s="27">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="43"/>
+        <v>230</v>
+      </c>
+      <c r="H25" s="51"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="51"/>
     </row>
     <row r="26" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>125</v>
+      <c r="C26" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="E26" s="27">
         <v>1</v>
@@ -2610,154 +2617,154 @@
         <v>120</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="I26" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="J26" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="47"/>
       <c r="E27" s="27">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="79"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="43"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="51"/>
     </row>
     <row r="28" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="47"/>
       <c r="E28" s="27">
         <v>3</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H28" s="79"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="H28" s="55"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="51"/>
     </row>
     <row r="29" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="47"/>
       <c r="E29" s="27">
         <v>4</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="79"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="H29" s="55"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="51"/>
     </row>
     <row r="30" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="47"/>
       <c r="E30" s="27">
         <v>5</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="79"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="43"/>
+        <v>153</v>
+      </c>
+      <c r="H30" s="55"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="51"/>
     </row>
     <row r="31" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="47"/>
       <c r="E31" s="27">
         <v>6</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" s="79"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="51"/>
     </row>
     <row r="32" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="47"/>
       <c r="E32" s="27">
         <v>7</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="79"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" spans="1:10" s="39" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="47"/>
       <c r="E33" s="27">
         <v>8</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="80"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="43"/>
+        <v>155</v>
+      </c>
+      <c r="H33" s="56"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="51"/>
     </row>
     <row r="34" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>125</v>
+      <c r="A34" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="E34" s="27">
         <v>1</v>
@@ -2766,152 +2773,152 @@
         <v>120</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="J34" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="47"/>
       <c r="E35" s="27">
         <v>2</v>
       </c>
       <c r="F35" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="43"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="51"/>
     </row>
     <row r="36" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="47"/>
       <c r="E36" s="27">
         <v>3</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="H36" s="51"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="51"/>
     </row>
     <row r="37" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="47"/>
       <c r="E37" s="27">
         <v>4</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="H37" s="51"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="51"/>
     </row>
     <row r="38" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="47"/>
       <c r="E38" s="27">
         <v>5</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="43"/>
+        <v>153</v>
+      </c>
+      <c r="H38" s="51"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="51"/>
     </row>
     <row r="39" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="47"/>
       <c r="E39" s="27">
         <v>6</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H39" s="51"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="51"/>
     </row>
     <row r="40" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="47"/>
       <c r="E40" s="27">
         <v>7</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H40" s="51"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="51"/>
     </row>
     <row r="41" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="47"/>
       <c r="E41" s="27">
         <v>8</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="43"/>
+        <v>161</v>
+      </c>
+      <c r="H41" s="51"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="51"/>
     </row>
     <row r="42" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>125</v>
+      <c r="A42" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="E42" s="27">
         <v>1</v>
@@ -2920,152 +2927,152 @@
         <v>120</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="J42" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H42" s="54"/>
+      <c r="I42" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J42" s="50"/>
     </row>
     <row r="43" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="47"/>
       <c r="E43" s="27">
         <v>2</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="43"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="47"/>
       <c r="E44" s="27">
         <v>3</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H44" s="43"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="H44" s="51"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="47"/>
       <c r="E45" s="27">
         <v>4</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H45" s="43"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="H45" s="51"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="47"/>
       <c r="E46" s="27">
         <v>5</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H46" s="43"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="43"/>
+        <v>153</v>
+      </c>
+      <c r="H46" s="51"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="51"/>
     </row>
     <row r="47" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="47"/>
       <c r="E47" s="27">
         <v>6</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H47" s="43"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H47" s="51"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="51"/>
     </row>
     <row r="48" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="47"/>
       <c r="E48" s="27">
         <v>7</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H48" s="43"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H48" s="51"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="51"/>
     </row>
     <row r="49" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="47"/>
       <c r="E49" s="27">
         <v>8</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G49" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" s="51"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="51"/>
+    </row>
+    <row r="50" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="43"/>
-    </row>
-    <row r="50" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="45" t="s">
+      <c r="B50" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="49" t="s">
-        <v>125</v>
+      <c r="D50" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="E50" s="27">
         <v>1</v>
@@ -3074,152 +3081,152 @@
         <v>120</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="50"/>
-      <c r="I50" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="J50" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H50" s="54"/>
+      <c r="I50" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J50" s="50"/>
     </row>
     <row r="51" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="47"/>
       <c r="E51" s="27">
         <v>2</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="43"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="51"/>
     </row>
     <row r="52" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="47"/>
       <c r="E52" s="27">
         <v>3</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="H52" s="51"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="51"/>
     </row>
     <row r="53" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="47"/>
       <c r="E53" s="27">
         <v>4</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H53" s="43"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="H53" s="51"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="51"/>
     </row>
     <row r="54" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="47"/>
       <c r="E54" s="27">
         <v>5</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H54" s="43"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="43"/>
+        <v>153</v>
+      </c>
+      <c r="H54" s="51"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="51"/>
     </row>
     <row r="55" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="47"/>
       <c r="E55" s="27">
         <v>6</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H55" s="43"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H55" s="51"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="51"/>
     </row>
     <row r="56" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="47"/>
       <c r="E56" s="27">
         <v>7</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H56" s="43"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H56" s="51"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="51"/>
     </row>
     <row r="57" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="47"/>
       <c r="E57" s="27">
         <v>8</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H57" s="43"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="43"/>
+        <v>161</v>
+      </c>
+      <c r="H57" s="51"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="51"/>
     </row>
     <row r="58" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>125</v>
+      <c r="A58" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="E58" s="27">
         <v>1</v>
@@ -3228,152 +3235,152 @@
         <v>120</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" s="50"/>
-      <c r="I58" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="J58" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H58" s="54"/>
+      <c r="I58" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J58" s="50"/>
     </row>
     <row r="59" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="47"/>
       <c r="E59" s="27">
         <v>2</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="43"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="43"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="51"/>
     </row>
     <row r="60" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="47"/>
       <c r="E60" s="27">
         <v>3</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H60" s="43"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="H60" s="51"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="51"/>
     </row>
     <row r="61" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="47"/>
       <c r="E61" s="27">
         <v>4</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H61" s="43"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="H61" s="51"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="51"/>
     </row>
     <row r="62" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="47"/>
       <c r="E62" s="27">
         <v>5</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H62" s="43"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="43"/>
+        <v>153</v>
+      </c>
+      <c r="H62" s="51"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="51"/>
     </row>
     <row r="63" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="47"/>
       <c r="E63" s="27">
         <v>6</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H63" s="43"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H63" s="51"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="51"/>
     </row>
     <row r="64" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="47"/>
       <c r="E64" s="27">
         <v>7</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H64" s="43"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H64" s="51"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="51"/>
     </row>
     <row r="65" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="47"/>
       <c r="E65" s="27">
         <v>8</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H65" s="43"/>
-      <c r="I65" s="86"/>
-      <c r="J65" s="43"/>
+        <v>161</v>
+      </c>
+      <c r="H65" s="51"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="51"/>
     </row>
     <row r="66" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="49" t="s">
-        <v>125</v>
+      <c r="A66" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="E66" s="27">
         <v>1</v>
@@ -3382,152 +3389,152 @@
         <v>120</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H66" s="50"/>
-      <c r="I66" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="J66" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H66" s="54"/>
+      <c r="I66" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J66" s="50"/>
     </row>
     <row r="67" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="47"/>
       <c r="E67" s="27">
         <v>2</v>
       </c>
       <c r="F67" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G67" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H67" s="43"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="43"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="51"/>
     </row>
     <row r="68" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="47"/>
       <c r="E68" s="27">
         <v>3</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H68" s="43"/>
-      <c r="I68" s="86"/>
-      <c r="J68" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="H68" s="51"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="51"/>
     </row>
     <row r="69" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="47"/>
       <c r="E69" s="27">
         <v>4</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H69" s="43"/>
-      <c r="I69" s="86"/>
-      <c r="J69" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="H69" s="51"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="51"/>
     </row>
     <row r="70" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="47"/>
       <c r="E70" s="27">
         <v>5</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H70" s="43"/>
-      <c r="I70" s="86"/>
-      <c r="J70" s="43"/>
+        <v>153</v>
+      </c>
+      <c r="H70" s="51"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="51"/>
     </row>
     <row r="71" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="47"/>
       <c r="E71" s="27">
         <v>6</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H71" s="43"/>
-      <c r="I71" s="86"/>
-      <c r="J71" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H71" s="51"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="51"/>
     </row>
     <row r="72" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="47"/>
       <c r="E72" s="27">
         <v>7</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H72" s="43"/>
-      <c r="I72" s="86"/>
-      <c r="J72" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H72" s="51"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="51"/>
     </row>
     <row r="73" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="47"/>
       <c r="E73" s="27">
         <v>8</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H73" s="43"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="43"/>
+        <v>161</v>
+      </c>
+      <c r="H73" s="51"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="51"/>
     </row>
     <row r="74" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="49" t="s">
-        <v>125</v>
+      <c r="A74" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="E74" s="27">
         <v>1</v>
@@ -3536,152 +3543,152 @@
         <v>120</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H74" s="50"/>
-      <c r="I74" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="J74" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H74" s="54"/>
+      <c r="I74" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J74" s="50"/>
     </row>
     <row r="75" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="47"/>
       <c r="E75" s="27">
         <v>2</v>
       </c>
       <c r="F75" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G75" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H75" s="43"/>
-      <c r="I75" s="86"/>
-      <c r="J75" s="43"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="51"/>
     </row>
     <row r="76" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="47"/>
       <c r="E76" s="27">
         <v>3</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H76" s="43"/>
-      <c r="I76" s="86"/>
-      <c r="J76" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="H76" s="51"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="51"/>
     </row>
     <row r="77" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="47"/>
       <c r="E77" s="27">
         <v>4</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H77" s="43"/>
-      <c r="I77" s="86"/>
-      <c r="J77" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="H77" s="51"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="51"/>
     </row>
     <row r="78" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="47"/>
       <c r="E78" s="27">
         <v>5</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H78" s="43"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="43"/>
+        <v>153</v>
+      </c>
+      <c r="H78" s="51"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="51"/>
     </row>
     <row r="79" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="47"/>
       <c r="E79" s="27">
         <v>6</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H79" s="43"/>
-      <c r="I79" s="86"/>
-      <c r="J79" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H79" s="51"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="51"/>
     </row>
     <row r="80" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="47"/>
       <c r="E80" s="27">
         <v>7</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H80" s="43"/>
-      <c r="I80" s="86"/>
-      <c r="J80" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H80" s="51"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="51"/>
     </row>
     <row r="81" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="47"/>
       <c r="E81" s="27">
         <v>8</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H81" s="43"/>
-      <c r="I81" s="86"/>
-      <c r="J81" s="43"/>
+        <v>161</v>
+      </c>
+      <c r="H81" s="51"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="51"/>
     </row>
     <row r="82" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>125</v>
+      <c r="A82" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="E82" s="27">
         <v>1</v>
@@ -3690,306 +3697,306 @@
         <v>120</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H82" s="50"/>
-      <c r="I82" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="J82" s="42"/>
+        <v>226</v>
+      </c>
+      <c r="H82" s="54"/>
+      <c r="I82" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J82" s="50"/>
     </row>
     <row r="83" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="47"/>
       <c r="E83" s="27">
         <v>2</v>
       </c>
       <c r="F83" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G83" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H83" s="43"/>
-      <c r="I83" s="86"/>
-      <c r="J83" s="43"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="51"/>
     </row>
     <row r="84" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="47"/>
       <c r="E84" s="27">
         <v>3</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H84" s="43"/>
-      <c r="I84" s="86"/>
-      <c r="J84" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="H84" s="51"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="51"/>
     </row>
     <row r="85" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="47"/>
       <c r="E85" s="27">
         <v>4</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H85" s="43"/>
-      <c r="I85" s="86"/>
-      <c r="J85" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="H85" s="51"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="51"/>
     </row>
     <row r="86" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="47"/>
       <c r="E86" s="27">
         <v>5</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H86" s="43"/>
-      <c r="I86" s="86"/>
-      <c r="J86" s="43"/>
+        <v>153</v>
+      </c>
+      <c r="H86" s="51"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="51"/>
     </row>
     <row r="87" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="47"/>
       <c r="E87" s="27">
         <v>6</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H87" s="43"/>
-      <c r="I87" s="86"/>
-      <c r="J87" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H87" s="51"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="51"/>
     </row>
     <row r="88" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="47"/>
       <c r="E88" s="27">
         <v>7</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H88" s="43"/>
-      <c r="I88" s="86"/>
-      <c r="J88" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="H88" s="51"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="51"/>
     </row>
     <row r="89" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
       <c r="D89" s="47"/>
       <c r="E89" s="27">
         <v>8</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H89" s="43"/>
-      <c r="I89" s="86"/>
-      <c r="J89" s="43"/>
+        <v>161</v>
+      </c>
+      <c r="H89" s="51"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="51"/>
     </row>
     <row r="90" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="B90" s="88" t="s">
-        <v>221</v>
-      </c>
-      <c r="C90" s="88" t="s">
-        <v>222</v>
-      </c>
-      <c r="D90" s="49" t="s">
-        <v>187</v>
+      <c r="A90" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>182</v>
       </c>
       <c r="E90" s="27">
         <v>1</v>
       </c>
-      <c r="F90" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="G90" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="H90" s="50"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="42"/>
+      <c r="F90" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="G90" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="H90" s="54"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="50"/>
     </row>
     <row r="91" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
       <c r="D91" s="47"/>
       <c r="E91" s="27">
         <v>2</v>
       </c>
-      <c r="F91" s="89" t="s">
-        <v>225</v>
+      <c r="F91" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H91" s="43"/>
+        <v>221</v>
+      </c>
+      <c r="H91" s="51"/>
       <c r="I91" s="47"/>
-      <c r="J91" s="43"/>
+      <c r="J91" s="51"/>
     </row>
     <row r="92" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="47"/>
       <c r="E92" s="27">
         <v>3</v>
       </c>
-      <c r="F92" s="89" t="s">
-        <v>227</v>
-      </c>
-      <c r="G92" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="H92" s="43"/>
+      <c r="F92" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G92" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H92" s="51"/>
       <c r="I92" s="47"/>
-      <c r="J92" s="43"/>
+      <c r="J92" s="51"/>
     </row>
     <row r="93" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="47"/>
       <c r="E93" s="27">
         <v>4</v>
       </c>
-      <c r="F93" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="G93" s="90" t="s">
-        <v>230</v>
-      </c>
-      <c r="H93" s="43"/>
+      <c r="F93" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="H93" s="51"/>
       <c r="I93" s="47"/>
-      <c r="J93" s="43"/>
+      <c r="J93" s="51"/>
     </row>
     <row r="94" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="48"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="67"/>
       <c r="E94" s="27">
         <v>5</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="44"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="58"/>
     </row>
     <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="45"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="49"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="53"/>
       <c r="E95" s="15">
         <v>1</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="42"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="50"/>
     </row>
     <row r="96" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="44"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
       <c r="E96" s="15">
         <v>2</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="44"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="58"/>
     </row>
     <row r="97" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="45"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="49"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="53"/>
       <c r="E97" s="15">
         <v>1</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="42"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="50"/>
     </row>
     <row r="98" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="44"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
       <c r="E98" s="15">
         <v>2</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="44"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="58"/>
     </row>
     <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="45"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
       <c r="E99" s="11">
         <v>1</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="42"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="50"/>
     </row>
     <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="43"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
       <c r="D100" s="47"/>
@@ -3998,12 +4005,12 @@
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
-      <c r="H100" s="43"/>
+      <c r="H100" s="51"/>
       <c r="I100" s="47"/>
-      <c r="J100" s="43"/>
+      <c r="J100" s="51"/>
     </row>
     <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="43"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
       <c r="D101" s="47"/>
@@ -4012,40 +4019,40 @@
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="43"/>
+      <c r="H101" s="51"/>
       <c r="I101" s="47"/>
-      <c r="J101" s="43"/>
+      <c r="J101" s="51"/>
     </row>
     <row r="102" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="44"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
       <c r="E102" s="14">
         <v>4</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="44"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="58"/>
     </row>
     <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="45"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
       <c r="E103" s="11">
         <v>1</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="42"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="50"/>
     </row>
     <row r="104" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="43"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="47"/>
       <c r="C104" s="47"/>
       <c r="D104" s="47"/>
@@ -4054,12 +4061,12 @@
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
-      <c r="H104" s="43"/>
+      <c r="H104" s="51"/>
       <c r="I104" s="47"/>
-      <c r="J104" s="43"/>
+      <c r="J104" s="51"/>
     </row>
     <row r="105" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="43"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
       <c r="D105" s="47"/>
@@ -4068,40 +4075,40 @@
       </c>
       <c r="F105" s="12"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="43"/>
+      <c r="H105" s="51"/>
       <c r="I105" s="47"/>
-      <c r="J105" s="43"/>
+      <c r="J105" s="51"/>
     </row>
     <row r="106" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="44"/>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
       <c r="E106" s="14">
         <v>4</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="44"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="58"/>
     </row>
     <row r="107" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="45"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
       <c r="E107" s="11">
         <v>1</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="42"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="68"/>
+      <c r="J107" s="50"/>
     </row>
     <row r="108" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="43"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
       <c r="D108" s="47"/>
@@ -4110,12 +4117,12 @@
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="43"/>
+      <c r="H108" s="51"/>
       <c r="I108" s="47"/>
-      <c r="J108" s="43"/>
+      <c r="J108" s="51"/>
     </row>
     <row r="109" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="43"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
       <c r="D109" s="47"/>
@@ -4124,40 +4131,40 @@
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="43"/>
+      <c r="H109" s="51"/>
       <c r="I109" s="47"/>
-      <c r="J109" s="43"/>
+      <c r="J109" s="51"/>
     </row>
     <row r="110" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="44"/>
-      <c r="B110" s="48"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
       <c r="E110" s="14">
         <v>4</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="44"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="58"/>
     </row>
     <row r="111" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="45"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="49"/>
-      <c r="D111" s="49"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
       <c r="E111" s="11">
         <v>1</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="42"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="50"/>
     </row>
     <row r="112" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="43"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="47"/>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -4166,12 +4173,12 @@
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
-      <c r="H112" s="43"/>
+      <c r="H112" s="51"/>
       <c r="I112" s="47"/>
-      <c r="J112" s="43"/>
+      <c r="J112" s="51"/>
     </row>
     <row r="113" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="43"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="47"/>
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
@@ -4180,23 +4187,23 @@
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
-      <c r="H113" s="43"/>
+      <c r="H113" s="51"/>
       <c r="I113" s="47"/>
-      <c r="J113" s="43"/>
+      <c r="J113" s="51"/>
     </row>
     <row r="114" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="44"/>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
+      <c r="A114" s="58"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
       <c r="E114" s="14">
         <v>4</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="44"/>
-      <c r="I114" s="48"/>
-      <c r="J114" s="44"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="58"/>
     </row>
     <row r="115" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="16"/>
@@ -4208,7 +4215,7 @@
       <c r="G115" s="19"/>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
-      <c r="J115" s="40"/>
+      <c r="J115" s="72"/>
     </row>
     <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="16"/>
@@ -4220,7 +4227,7 @@
       <c r="G116" s="19"/>
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
-      <c r="J116" s="41"/>
+      <c r="J116" s="60"/>
     </row>
     <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="16"/>
@@ -4232,7 +4239,7 @@
       <c r="G117" s="19"/>
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
-      <c r="J117" s="41"/>
+      <c r="J117" s="60"/>
     </row>
     <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="16"/>
@@ -4244,7 +4251,7 @@
       <c r="G118" s="19"/>
       <c r="H118" s="20"/>
       <c r="I118" s="20"/>
-      <c r="J118" s="41"/>
+      <c r="J118" s="60"/>
     </row>
     <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="16"/>
@@ -15740,6 +15747,172 @@
     </row>
   </sheetData>
   <mergeCells count="190">
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="H111:H114"/>
+    <mergeCell ref="I111:I114"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="H107:H110"/>
+    <mergeCell ref="I107:I110"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="I90:I94"/>
+    <mergeCell ref="J90:J94"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="H34:H41"/>
+    <mergeCell ref="I34:I41"/>
+    <mergeCell ref="J34:J41"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I26:I33"/>
+    <mergeCell ref="J26:J33"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="H26:H33"/>
+    <mergeCell ref="I42:I49"/>
+    <mergeCell ref="J42:J49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="H50:H57"/>
+    <mergeCell ref="I50:I57"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="H42:H49"/>
+    <mergeCell ref="I58:I65"/>
+    <mergeCell ref="J58:J65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="H66:H73"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="J66:J73"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="H58:H65"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="I74:I81"/>
@@ -15764,198 +15937,32 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I58:I65"/>
-    <mergeCell ref="J58:J65"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="C66:C73"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="H66:H73"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="J66:J73"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="I42:I49"/>
-    <mergeCell ref="J42:J49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="H50:H57"/>
-    <mergeCell ref="I50:I57"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="H42:H49"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="H34:H41"/>
-    <mergeCell ref="I34:I41"/>
-    <mergeCell ref="J34:J41"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I26:I33"/>
-    <mergeCell ref="J26:J33"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="H26:H33"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="I90:I94"/>
-    <mergeCell ref="J90:J94"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="I99:I102"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="J107:J110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="H111:H114"/>
-    <mergeCell ref="I111:I114"/>
-    <mergeCell ref="J111:J114"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="H107:H110"/>
-    <mergeCell ref="I107:I110"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J90 J95 J97 J99 J103 J107 J111 J6 J26 J8 J18 J20 J22 J24 J34 J42 J50 J58 J66 J10 J12 J14 J16 J74 J82">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J90 J95 J97 J99 J103 J107 J111 J6 J26 J8 J18 J20 J22 J24 J34 J42 J50 J58 J66 J10 J12 J14 J16 J74 J82" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F6" r:id="rId2" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F8" r:id="rId3" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F26" r:id="rId4" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F18" r:id="rId5" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F20" r:id="rId6" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F22" r:id="rId7" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F24" r:id="rId8" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F34" r:id="rId9" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F42" r:id="rId10" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F50" r:id="rId11" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F58" r:id="rId12" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F66" r:id="rId13" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F10" r:id="rId14" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F12" r:id="rId15" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F14" r:id="rId16" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F16" r:id="rId17" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F74" r:id="rId18" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
-    <hyperlink ref="F82" r:id="rId19" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F3" r:id="rId1" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F6" r:id="rId2" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId3" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F26" r:id="rId4" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F18" r:id="rId5" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F20" r:id="rId6" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F22" r:id="rId7" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F24" r:id="rId8" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F34" r:id="rId9" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F42" r:id="rId10" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F50" r:id="rId11" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F58" r:id="rId12" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F66" r:id="rId13" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F10" r:id="rId14" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F12" r:id="rId15" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F14" r:id="rId16" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F16" r:id="rId17" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F74" r:id="rId18" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F82" r:id="rId19" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -15963,7 +15970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -15976,7 +15983,7 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -15991,38 +15998,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="54" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -16032,21 +16039,21 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="41"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3">
@@ -16058,20 +16065,20 @@
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="47"/>
       <c r="E4" s="3">
         <v>2</v>
@@ -16082,14 +16089,14 @@
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="43"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="47"/>
       <c r="E5" s="3">
         <v>3</v>
@@ -16100,14 +16107,14 @@
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="43"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="47"/>
       <c r="E6" s="3">
         <v>4</v>
@@ -16118,15 +16125,15 @@
       <c r="G6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="43"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="48"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -16136,21 +16143,21 @@
       <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="44"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3">
@@ -16162,20 +16169,20 @@
       <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="47"/>
       <c r="E9" s="3">
         <v>2</v>
@@ -16186,14 +16193,14 @@
       <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="43"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="43"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="47"/>
       <c r="E10" s="3">
         <v>3</v>
@@ -16204,14 +16211,14 @@
       <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="43"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="43"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="47"/>
       <c r="E11" s="3">
         <v>4</v>
@@ -16222,15 +16229,15 @@
       <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="43"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="43"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="48"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="3">
         <v>5</v>
       </c>
@@ -16240,21 +16247,21 @@
       <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="44"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3">
@@ -16266,20 +16273,20 @@
       <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="47"/>
       <c r="E14" s="3">
         <v>2</v>
@@ -16290,14 +16297,14 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="43"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="43"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="47"/>
       <c r="E15" s="3">
         <v>3</v>
@@ -16308,14 +16315,14 @@
       <c r="G15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="43"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="43"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="47"/>
       <c r="E16" s="3">
         <v>4</v>
@@ -16326,15 +16333,15 @@
       <c r="G16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="43"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="48"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="3">
         <v>5</v>
       </c>
@@ -16344,21 +16351,21 @@
       <c r="G17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="7">
@@ -16370,21 +16377,21 @@
       <c r="G18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="7">
         <v>2</v>
       </c>
@@ -16394,21 +16401,21 @@
       <c r="G19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="7">
@@ -16420,21 +16427,21 @@
       <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="7">
         <v>2</v>
       </c>
@@ -16444,21 +16451,21 @@
       <c r="G21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="44"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="9">
@@ -16470,18 +16477,18 @@
       <c r="G22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -16494,12 +16501,12 @@
       <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="43"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="43"/>
+      <c r="J23" s="51"/>
     </row>
     <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -16512,15 +16519,15 @@
       <c r="G24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="43"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="43"/>
+      <c r="J24" s="51"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="10">
         <v>4</v>
       </c>
@@ -16530,21 +16537,21 @@
       <c r="G25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="44"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="9">
@@ -16556,18 +16563,18 @@
       <c r="G26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -16580,12 +16587,12 @@
       <c r="G27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="47"/>
-      <c r="J27" s="43"/>
+      <c r="J27" s="51"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -16598,15 +16605,15 @@
       <c r="G28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="43"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="47"/>
-      <c r="J28" s="43"/>
+      <c r="J28" s="51"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="10">
         <v>4</v>
       </c>
@@ -16616,21 +16623,21 @@
       <c r="G29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="44"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="11">
@@ -16642,18 +16649,18 @@
       <c r="G30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="42" t="s">
+      <c r="J30" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -16666,12 +16673,12 @@
       <c r="G31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="43"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="47"/>
-      <c r="J31" s="43"/>
+      <c r="J31" s="51"/>
     </row>
     <row r="32" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -16684,15 +16691,15 @@
       <c r="G32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="43"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="47"/>
-      <c r="J32" s="43"/>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="14">
         <v>4</v>
       </c>
@@ -16702,21 +16709,21 @@
       <c r="G33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="44"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="11">
@@ -16728,18 +16735,18 @@
       <c r="G34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="46" t="s">
+      <c r="I34" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="42" t="s">
+      <c r="J34" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -16752,12 +16759,12 @@
       <c r="G35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="43"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="47"/>
-      <c r="J35" s="43"/>
+      <c r="J35" s="51"/>
     </row>
     <row r="36" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -16770,15 +16777,15 @@
       <c r="G36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="43"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="47"/>
-      <c r="J36" s="43"/>
+      <c r="J36" s="51"/>
     </row>
     <row r="37" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="14">
         <v>4</v>
       </c>
@@ -16788,9 +16795,9 @@
       <c r="G37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="44"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="44"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
@@ -16802,7 +16809,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="40"/>
+      <c r="J38" s="72"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
@@ -16814,7 +16821,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
-      <c r="J39" s="41"/>
+      <c r="J39" s="60"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
@@ -16826,7 +16833,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
-      <c r="J40" s="41"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
@@ -16838,7 +16845,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="41"/>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
@@ -28338,48 +28345,20 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="J38:J41"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
@@ -28396,43 +28375,71 @@
     <mergeCell ref="J22:J25"/>
     <mergeCell ref="H34:H37"/>
     <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J13 J18 J20 J22 J26 J30 J34">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J13 J18 J20 J22 J26 J30 J34" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
-    <hyperlink ref="F13" r:id="rId3"/>
-    <hyperlink ref="F18" r:id="rId4"/>
-    <hyperlink ref="F20" r:id="rId5"/>
-    <hyperlink ref="F22" r:id="rId6"/>
-    <hyperlink ref="F26" r:id="rId7"/>
-    <hyperlink ref="F30" r:id="rId8"/>
-    <hyperlink ref="F34" r:id="rId9"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F18" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F20" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F22" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F26" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F30" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F34" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -28442,7 +28449,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
@@ -28593,22 +28600,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C10">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B4" location="Template - CP!A3:A7" display="PE1"/>
-    <hyperlink ref="B5" location="Template - CP!A18:A19" display="TD1"/>
-    <hyperlink ref="E5" location="Defectos!B4:B5" display="Bug-001"/>
-    <hyperlink ref="B6" location="Template - CP!A22:A25" display="TE1"/>
+    <hyperlink ref="B4" location="Template - CP!A3:A7" display="PE1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B5" location="Template - CP!A18:A19" display="TD1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E5" location="Defectos!B4:B5" display="Bug-001" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B6" location="Template - CP!A22:A25" display="TE1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -28618,7 +28625,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
@@ -28748,7 +28755,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C11">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C11" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28757,821 +28764,821 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="43"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="73" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="73" t="s">
+      <c r="H5" s="64"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="43"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="43"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="75" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="62" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="75" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="43"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="43"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="43"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="43"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="43"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="43"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="43"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="47"/>
-      <c r="L15" s="43"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="43"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="43"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="62" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="43"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="47"/>
-      <c r="L19" s="43"/>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="43"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="43"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="43"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="43"/>
+      <c r="L23" s="51"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="43"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="43"/>
+      <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="47"/>
-      <c r="L26" s="43"/>
+      <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="43"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="51"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="43"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="51"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="43"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="51"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
       <c r="K30" s="47"/>
-      <c r="L30" s="43"/>
+      <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="43"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="43"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="62" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="43"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
       <c r="K34" s="47"/>
-      <c r="L34" s="43"/>
+      <c r="L34" s="51"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="43"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="51"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="43"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="51"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="62" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="43"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="51"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
       <c r="K38" s="47"/>
-      <c r="L38" s="43"/>
+      <c r="L38" s="51"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
       <c r="K39" s="47"/>
-      <c r="L39" s="43"/>
+      <c r="L39" s="51"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
       <c r="K40" s="47"/>
-      <c r="L40" s="43"/>
+      <c r="L40" s="51"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
       <c r="K41" s="47"/>
-      <c r="L41" s="43"/>
+      <c r="L41" s="51"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
       <c r="K42" s="47"/>
-      <c r="L42" s="43"/>
+      <c r="L42" s="51"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
       <c r="K43" s="47"/>
-      <c r="L43" s="43"/>
+      <c r="L43" s="51"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
       <c r="K44" s="47"/>
-      <c r="L44" s="43"/>
+      <c r="L44" s="51"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
       <c r="K45" s="47"/>
-      <c r="L45" s="43"/>
+      <c r="L45" s="51"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="43"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
       <c r="K46" s="47"/>
-      <c r="L46" s="43"/>
+      <c r="L46" s="51"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
       <c r="K47" s="47"/>
-      <c r="L47" s="43"/>
+      <c r="L47" s="51"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
       <c r="K48" s="47"/>
-      <c r="L48" s="43"/>
+      <c r="L48" s="51"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
       <c r="K49" s="47"/>
-      <c r="L49" s="43"/>
+      <c r="L49" s="51"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="47"/>
-      <c r="L50" s="43"/>
+      <c r="L50" s="51"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
       <c r="K51" s="47"/>
-      <c r="L51" s="43"/>
+      <c r="L51" s="51"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
       <c r="K52" s="47"/>
-      <c r="L52" s="43"/>
+      <c r="L52" s="51"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="43"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="51"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="43"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="51"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="44"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="58"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
@@ -29799,15 +29806,16 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="B9:K10"/>
-    <mergeCell ref="B11:K12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
     <mergeCell ref="B38:K53"/>
     <mergeCell ref="B54:K55"/>
     <mergeCell ref="A1:L2"/>
@@ -29824,22 +29832,21 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B29:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K27"/>
-    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="B9:K10"/>
+    <mergeCell ref="B11:K12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:H8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G5">
+    <dataValidation type="list" allowBlank="1" sqref="G5" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"BAJA,MEDIA,ALTA,CRITICA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J5">
+    <dataValidation type="list" allowBlank="1" sqref="J5" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"BAJA,MEDIA,ALTA,CRITICA,BLOQUEANTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29849,7 +29856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -29859,814 +29866,814 @@
       <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="12.5703125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="43"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="73" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="73" t="s">
+      <c r="H5" s="64"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="43"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="43"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="62" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="43"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="43"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="43"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="43"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="43"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="43"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="43"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="47"/>
-      <c r="L15" s="43"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="43"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="43"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="76" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="43"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="47"/>
-      <c r="L19" s="43"/>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="43"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="43"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="43"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="43"/>
+      <c r="L23" s="51"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="43"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="43"/>
+      <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="47"/>
-      <c r="L26" s="43"/>
+      <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="43"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="51"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="43"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="51"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="43"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="51"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
       <c r="K30" s="47"/>
-      <c r="L30" s="43"/>
+      <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="43"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="43"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="62" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="43"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
       <c r="K34" s="47"/>
-      <c r="L34" s="43"/>
+      <c r="L34" s="51"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="43"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="51"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="43"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="51"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="62" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="43"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="51"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
       <c r="K38" s="47"/>
-      <c r="L38" s="43"/>
+      <c r="L38" s="51"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
       <c r="K39" s="47"/>
-      <c r="L39" s="43"/>
+      <c r="L39" s="51"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
       <c r="K40" s="47"/>
-      <c r="L40" s="43"/>
+      <c r="L40" s="51"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
       <c r="K41" s="47"/>
-      <c r="L41" s="43"/>
+      <c r="L41" s="51"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
       <c r="K42" s="47"/>
-      <c r="L42" s="43"/>
+      <c r="L42" s="51"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
       <c r="K43" s="47"/>
-      <c r="L43" s="43"/>
+      <c r="L43" s="51"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
       <c r="K44" s="47"/>
-      <c r="L44" s="43"/>
+      <c r="L44" s="51"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
       <c r="K45" s="47"/>
-      <c r="L45" s="43"/>
+      <c r="L45" s="51"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="43"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
       <c r="K46" s="47"/>
-      <c r="L46" s="43"/>
+      <c r="L46" s="51"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
       <c r="K47" s="47"/>
-      <c r="L47" s="43"/>
+      <c r="L47" s="51"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
       <c r="K48" s="47"/>
-      <c r="L48" s="43"/>
+      <c r="L48" s="51"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
       <c r="K49" s="47"/>
-      <c r="L49" s="43"/>
+      <c r="L49" s="51"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="47"/>
-      <c r="L50" s="43"/>
+      <c r="L50" s="51"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
       <c r="K51" s="47"/>
-      <c r="L51" s="43"/>
+      <c r="L51" s="51"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
       <c r="K52" s="47"/>
-      <c r="L52" s="43"/>
+      <c r="L52" s="51"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="43"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="51"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="43"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="51"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="44"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="58"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
@@ -30894,6 +30901,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K53"/>
+    <mergeCell ref="B54:K55"/>
+    <mergeCell ref="B18:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="B9:K10"/>
+    <mergeCell ref="B11:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="A3:A55"/>
     <mergeCell ref="B3:K3"/>
@@ -30910,31 +30936,12 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="B9:K10"/>
-    <mergeCell ref="B11:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K16"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K53"/>
-    <mergeCell ref="B54:K55"/>
-    <mergeCell ref="B18:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K35"/>
-    <mergeCell ref="B36:K36"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="J5">
+    <dataValidation type="list" allowBlank="1" sqref="J5" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"BAJA,MEDIA,ALTA,CRITICA,BLOQUEANTE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5">
+    <dataValidation type="list" allowBlank="1" sqref="G5" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"BAJA,MEDIA,ALTA,CRITICA"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/Tabla testeos.xlsx
+++ b/tests/Tabla testeos.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c1c538a99f55e7a/Documents/Certified_Tech_Developer/Anio_I/Bimestre_04/grupo-05/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_BEEDF5FD9CDAC0A1D58D79ABBDA8FD73A4B49ED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{713E723B-B207-4394-8EE3-B18D2693143E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Template - CP Limpio" sheetId="6" r:id="rId1"/>
+    <sheet name="Proyecto Integrador" sheetId="6" r:id="rId1"/>
     <sheet name="Template - CP" sheetId="1" r:id="rId2"/>
     <sheet name="Ciclo 1 - Smoke Test" sheetId="2" r:id="rId3"/>
     <sheet name="Ciclo 2 - Regresión" sheetId="3" r:id="rId4"/>
-    <sheet name="Defectos" sheetId="4" r:id="rId5"/>
+    <sheet name="Defectos (ejemplo)" sheetId="4" r:id="rId5"/>
     <sheet name="Defectos limpio" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="248">
   <si>
     <t>ID</t>
   </si>
@@ -465,9 +464,6 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -475,9 +471,6 @@
   </si>
   <si>
     <t>Bug-001</t>
-  </si>
-  <si>
-    <t>Consultar con el PO.</t>
   </si>
   <si>
     <t>Ejecución de casos de prueba - Ciclo 2</t>
@@ -805,9 +798,6 @@
     </r>
   </si>
   <si>
-    <t>Ingresar mail (xx@xx) y contraseña (xx)</t>
-  </si>
-  <si>
     <t>permite cargar la información</t>
   </si>
   <si>
@@ -1039,9 +1029,6 @@
     <t>Bloque General 1</t>
   </si>
   <si>
-    <t>Desde el bloque general puedo cerrar sicho bloque.</t>
-  </si>
-  <si>
     <t>Usuario anónimo</t>
   </si>
   <si>
@@ -1076,9 +1063,6 @@
   </si>
   <si>
     <t>En campo Apellido ingreso "9876"</t>
-  </si>
-  <si>
-    <t>ver playground 26: almacenar un correo y contraseña de prueba en un objeto y comparar con esots datos ingresados !!</t>
   </si>
   <si>
     <t>Efectua validación. Como las credenciales son correctas, desaparece el formulario de login, volveremos al Home inicial pero en el header a la derecha, en vez de los botones de inicio de sesión y registro veremos el header, elbuscador y el bloque de login (Hola Juan Perez, un link de cerrar sesión y un avatar circular con las iniciales del usuario)</t>
@@ -1117,9 +1101,6 @@
     <t>Dar click al botón "Buscar"</t>
   </si>
   <si>
-    <t>pensar verificación!!!</t>
-  </si>
-  <si>
     <t>Visualizar el home de Revolt Rentals</t>
   </si>
   <si>
@@ -1134,12 +1115,81 @@
   <si>
     <t>Redirige a pagina Instagram de Revolt Rentals</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Finalizado - ver playground 26: almacenar un correo y contraseña de prueba en un objeto y comparar con esots datos ingresados !!</t>
+  </si>
+  <si>
+    <t>RG8</t>
+  </si>
+  <si>
+    <t>Ingresar mail (nico.monterosabeli@gmail.com) y contraseña (digital)</t>
+  </si>
+  <si>
+    <t>BC1</t>
+  </si>
+  <si>
+    <t>Bloque Categoria</t>
+  </si>
+  <si>
+    <t>Puedo seleccionar una Categoría y que me muestre los vehículos de la misma</t>
+  </si>
+  <si>
+    <t>Se Renderizan los vehículos de dicha categoria</t>
+  </si>
+  <si>
+    <t>En el bloque de Categorias selecciono la pimer Categoria de vehículo</t>
+  </si>
+  <si>
+    <t>En el bloque de Categorias selecciono la segunda Categoria de vehículo</t>
+  </si>
+  <si>
+    <t>En el bloque de Categorias selecciono la tercera Categoria de vehículo</t>
+  </si>
+  <si>
+    <t>En el bloque de Categorias selecciono la cuarta Categoria de vehículo</t>
+  </si>
+  <si>
+    <t>Carga info pero no hace Login</t>
+  </si>
+  <si>
+    <t>Se visualiza la página de inicio que contiene un campo "correo electrónico" y otro contraseña</t>
+  </si>
+  <si>
+    <t>En pagina de inicio dar click a "Registrate"</t>
+  </si>
+  <si>
+    <t>Botón dice "Registrarse" en lugar de "CrearCuenta", se reemplaza página por Modal</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>Desde el bloque general puedo cerrar dicho bloque.</t>
+  </si>
+  <si>
+    <t>REVISAR QUE ES BLOQUE GENERAL</t>
+  </si>
+  <si>
+    <t>Logo presente, no hay red social aun, no redirige.</t>
+  </si>
+  <si>
+    <t>No se pudo hacer por falla de Logueo</t>
+  </si>
+  <si>
+    <t>Boton Cambia de color al dar click</t>
+  </si>
+  <si>
+    <t>Primer categoria funciona, en las demas no se ve el botón aun para seleccionar.</t>
+  </si>
+  <si>
+    <t>Por el momento se trabaja con una sóla pagina + Modal, Pendiente clickeable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1215,6 +1265,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1242,7 +1299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1445,11 +1502,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,32 +1639,62 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1602,7 +1705,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,23 +1717,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1675,8 +1775,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -2009,67 +2119,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1076"/>
+  <dimension ref="A1:J1077"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23" style="38" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="38" customWidth="1"/>
     <col min="5" max="5" width="3.28515625" style="38" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" style="38" customWidth="1"/>
     <col min="7" max="7" width="43.85546875" style="38" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="18" style="38" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="38" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="38" customWidth="1"/>
     <col min="11" max="16384" width="12.5703125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="57" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="70" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2079,2143 +2189,2265 @@
       <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="60"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>117</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>119</v>
       </c>
       <c r="E3" s="27">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="47"/>
+        <v>220</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="103"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="27">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>121</v>
+      <c r="F4" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="H4" s="51"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="51"/>
-    </row>
-    <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="27">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="27">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="53"/>
+    </row>
+    <row r="7" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="27">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="103"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="27">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="27">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="56" t="s">
         <v>179</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="27">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="J6" s="50"/>
-    </row>
-    <row r="7" spans="1:10" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="27">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="27">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:10" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="27">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="27">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>182</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" s="50"/>
+        <v>181</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="47"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="27">
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="51"/>
+        <v>183</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>182</v>
+      <c r="A14" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>179</v>
       </c>
       <c r="E14" s="27">
         <v>1</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="50"/>
+        <v>181</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="27">
         <v>2</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="J15" s="51"/>
+        <v>183</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>200</v>
+      <c r="A16" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>179</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>120</v>
+      <c r="F16" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="50"/>
+        <v>181</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="27">
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="51"/>
+        <v>193</v>
+      </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="53"/>
+      <c r="A18" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>196</v>
+      </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="47"/>
+        <v>220</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="27">
         <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="51"/>
+        <v>198</v>
+      </c>
+      <c r="H19" s="53"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="53"/>
+      <c r="A20" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="56"/>
       <c r="E20" s="27">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="J20" s="50"/>
+        <v>220</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="47"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="27">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="51"/>
+        <v>221</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="53"/>
+      <c r="A22" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="56"/>
       <c r="E22" s="27">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="J22" s="50"/>
+        <v>220</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="27">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="51"/>
+        <v>222</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="50" t="s">
+      <c r="A24" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="B24" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="56"/>
       <c r="E24" s="27">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="J24" s="50"/>
+        <v>220</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="27">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="51"/>
+        <v>223</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>124</v>
-      </c>
+      <c r="A26" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="56"/>
       <c r="E26" s="27">
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J26" s="50"/>
+        <v>220</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="47"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="27">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="53"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>121</v>
+      </c>
       <c r="E28" s="27">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="27">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="67"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
+    </row>
+    <row r="30" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="27">
         <v>3</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="67"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="62"/>
+    </row>
+    <row r="31" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="27">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H31" s="67"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="62"/>
+    </row>
+    <row r="32" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="27">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="51"/>
-    </row>
-    <row r="29" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="27">
+      <c r="G32" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="67"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="62"/>
+    </row>
+    <row r="33" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="27">
+        <v>6</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="67"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="62"/>
+    </row>
+    <row r="34" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="27">
+        <v>7</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="67"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="62"/>
+    </row>
+    <row r="35" spans="1:10" s="39" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="27">
+        <v>8</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="68"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="63"/>
+    </row>
+    <row r="36" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="27">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J36" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="27">
+        <v>2</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="53"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="62"/>
+    </row>
+    <row r="38" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="27">
+        <v>3</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="53"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="62"/>
+    </row>
+    <row r="39" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="27">
         <v>4</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="F39" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="53"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="62"/>
+    </row>
+    <row r="40" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="27">
+        <v>5</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="51"/>
-    </row>
-    <row r="30" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="27">
+      <c r="H40" s="53"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="62"/>
+    </row>
+    <row r="41" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="27">
+        <v>6</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="62"/>
+    </row>
+    <row r="42" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="27">
+        <v>7</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="62"/>
+    </row>
+    <row r="43" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="27">
+        <v>8</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="53"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="63"/>
+    </row>
+    <row r="44" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="27">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J44" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="27">
+        <v>2</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="53"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="62"/>
+    </row>
+    <row r="46" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="27">
+        <v>3</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" s="53"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
+    </row>
+    <row r="47" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="27">
+        <v>4</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" s="53"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="62"/>
+    </row>
+    <row r="48" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="27">
         <v>5</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="53"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="62"/>
+    </row>
+    <row r="49" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="27">
+        <v>6</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="51"/>
-    </row>
-    <row r="31" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="27">
+      <c r="H49" s="53"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="62"/>
+    </row>
+    <row r="50" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="27">
+        <v>7</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="53"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="62"/>
+    </row>
+    <row r="51" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="27">
+        <v>8</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="53"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="63"/>
+    </row>
+    <row r="52" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="27">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="27">
+        <v>2</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="53"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="62"/>
+    </row>
+    <row r="54" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="27">
+        <v>3</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="53"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="62"/>
+    </row>
+    <row r="55" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="27">
+        <v>4</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="53"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="62"/>
+    </row>
+    <row r="56" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="27">
+        <v>5</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" s="53"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="62"/>
+    </row>
+    <row r="57" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="27">
         <v>6</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F57" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" s="53"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="62"/>
+    </row>
+    <row r="58" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="27">
+        <v>7</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H58" s="53"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="62"/>
+    </row>
+    <row r="59" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="27">
+        <v>8</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H59" s="53"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="63"/>
+    </row>
+    <row r="60" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="27">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H60" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J60" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="27">
+        <v>2</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="53"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="62"/>
+    </row>
+    <row r="62" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="27">
+        <v>3</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="53"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="62"/>
+    </row>
+    <row r="63" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="27">
+        <v>4</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" s="53"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="62"/>
+    </row>
+    <row r="64" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="27">
+        <v>5</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="53"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="62"/>
+    </row>
+    <row r="65" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="27">
+        <v>6</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H65" s="53"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="62"/>
+    </row>
+    <row r="66" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="27">
+        <v>7</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" s="53"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="62"/>
+    </row>
+    <row r="67" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="27">
+        <v>8</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" s="53"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="63"/>
+    </row>
+    <row r="68" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="51"/>
-    </row>
-    <row r="32" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="27">
+      <c r="D68" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="27">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H68" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J68" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="27">
+        <v>2</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="53"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="62"/>
+    </row>
+    <row r="70" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="27">
+        <v>3</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" s="53"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="62"/>
+    </row>
+    <row r="71" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="27">
+        <v>4</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="53"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="62"/>
+    </row>
+    <row r="72" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="27">
+        <v>5</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="53"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="62"/>
+    </row>
+    <row r="73" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="27">
+        <v>6</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" s="53"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="62"/>
+    </row>
+    <row r="74" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="27">
         <v>7</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="51"/>
-    </row>
-    <row r="33" spans="1:10" s="39" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="27">
+      <c r="G74" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" s="53"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="62"/>
+    </row>
+    <row r="75" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="27">
         <v>8</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="51"/>
-    </row>
-    <row r="34" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="50" t="s">
+      <c r="F75" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G75" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="27">
+      <c r="H75" s="53"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="63"/>
+    </row>
+    <row r="76" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="27">
         <v>1</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="13" t="s">
+      <c r="F76" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H76" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J76" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="27">
+        <v>2</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="53"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="62"/>
+    </row>
+    <row r="78" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="27">
+        <v>3</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H78" s="53"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="62"/>
+    </row>
+    <row r="79" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="27">
+        <v>4</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79" s="53"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="62"/>
+    </row>
+    <row r="80" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="27">
+        <v>5</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H80" s="53"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="62"/>
+    </row>
+    <row r="81" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="27">
+        <v>6</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H81" s="53"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="62"/>
+    </row>
+    <row r="82" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="27">
+        <v>7</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H82" s="53"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="62"/>
+    </row>
+    <row r="83" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="27">
+        <v>8</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H83" s="53"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="63"/>
+    </row>
+    <row r="84" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="48" t="s">
+      <c r="B84" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="27">
+        <v>1</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H84" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J84" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="27">
+        <v>2</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="53"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="62"/>
+    </row>
+    <row r="86" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="53"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="27">
+        <v>3</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H86" s="53"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="62"/>
+    </row>
+    <row r="87" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="27">
+        <v>4</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H87" s="53"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="62"/>
+    </row>
+    <row r="88" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="53"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="27">
+        <v>5</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H88" s="53"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="62"/>
+    </row>
+    <row r="89" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="53"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="27">
+        <v>6</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H89" s="53"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="62"/>
+    </row>
+    <row r="90" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="53"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="27">
+        <v>7</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H90" s="53"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="62"/>
+    </row>
+    <row r="91" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" s="53"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="27">
+        <v>8</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H91" s="53"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="63"/>
+    </row>
+    <row r="92" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E92" s="27">
+        <v>1</v>
+      </c>
+      <c r="F92" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="G92" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="J34" s="50"/>
-    </row>
-    <row r="35" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="27">
+      <c r="H92" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J92" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="53"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="27">
         <v>2</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="51"/>
-    </row>
-    <row r="36" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="27">
+      <c r="F93" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="53"/>
+    </row>
+    <row r="94" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="53"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="27">
         <v>3</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" s="51"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="51"/>
-    </row>
-    <row r="37" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="27">
+      <c r="F94" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="G94" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="53"/>
+    </row>
+    <row r="95" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="53"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="27">
         <v>4</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H37" s="51"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="51"/>
-    </row>
-    <row r="38" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="27">
-        <v>5</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="51"/>
-    </row>
-    <row r="39" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="27">
-        <v>6</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="51"/>
-    </row>
-    <row r="40" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="27">
-        <v>7</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H40" s="51"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="51"/>
-    </row>
-    <row r="41" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="27">
-        <v>8</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H41" s="51"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="51"/>
-    </row>
-    <row r="42" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="27">
+      <c r="F95" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="H95" s="76"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="53"/>
+    </row>
+    <row r="96" spans="1:10" s="46" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="B96" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E96" s="27">
         <v>1</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J42" s="50"/>
-    </row>
-    <row r="43" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="27">
+      <c r="F96" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G96" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="H96" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J96" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="53"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="27">
         <v>2</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="51"/>
-    </row>
-    <row r="44" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="27">
+      <c r="F97" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="G97" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
+    </row>
+    <row r="98" spans="1:10" s="46" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="27">
         <v>3</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="51"/>
-    </row>
-    <row r="45" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="27">
+      <c r="F98" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G98" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="53"/>
+    </row>
+    <row r="99" spans="1:10" s="46" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="53"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="27">
         <v>4</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" s="51"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="51"/>
-    </row>
-    <row r="46" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="27">
-        <v>5</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="51"/>
-    </row>
-    <row r="47" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="27">
-        <v>6</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="51"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="51"/>
-    </row>
-    <row r="48" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="27">
-        <v>7</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H48" s="51"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="51"/>
-    </row>
-    <row r="49" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="27">
-        <v>8</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="51"/>
-    </row>
-    <row r="50" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="27">
+      <c r="F99" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="G99" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="53"/>
+    </row>
+    <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="65"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="11">
         <v>1</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J50" s="50"/>
-    </row>
-    <row r="51" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="27">
-        <v>2</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" s="51"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="51"/>
-    </row>
-    <row r="52" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="27">
-        <v>3</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H52" s="51"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="51"/>
-    </row>
-    <row r="53" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="27">
-        <v>4</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H53" s="51"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="51"/>
-    </row>
-    <row r="54" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="27">
-        <v>5</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="51"/>
-    </row>
-    <row r="55" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="27">
-        <v>6</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H55" s="51"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="51"/>
-    </row>
-    <row r="56" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="27">
-        <v>7</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="51"/>
-    </row>
-    <row r="57" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="27">
-        <v>8</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="51"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="51"/>
-    </row>
-    <row r="58" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="27">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H58" s="54"/>
-      <c r="I58" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J58" s="50"/>
-    </row>
-    <row r="59" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="27">
-        <v>2</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="51"/>
-    </row>
-    <row r="60" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="27">
-        <v>3</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H60" s="51"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="51"/>
-    </row>
-    <row r="61" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="27">
-        <v>4</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H61" s="51"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="51"/>
-    </row>
-    <row r="62" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="27">
-        <v>5</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H62" s="51"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="51"/>
-    </row>
-    <row r="63" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="27">
-        <v>6</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H63" s="51"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="51"/>
-    </row>
-    <row r="64" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="27">
-        <v>7</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="51"/>
-    </row>
-    <row r="65" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="27">
-        <v>8</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" s="51"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="51"/>
-    </row>
-    <row r="66" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="27">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H66" s="54"/>
-      <c r="I66" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J66" s="50"/>
-    </row>
-    <row r="67" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="27">
-        <v>2</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H67" s="51"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="51"/>
-    </row>
-    <row r="68" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="27">
-        <v>3</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" s="51"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="51"/>
-    </row>
-    <row r="69" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="51"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="27">
-        <v>4</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="51"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="51"/>
-    </row>
-    <row r="70" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="27">
-        <v>5</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H70" s="51"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="51"/>
-    </row>
-    <row r="71" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="27">
-        <v>6</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H71" s="51"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="51"/>
-    </row>
-    <row r="72" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="27">
-        <v>7</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H72" s="51"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="51"/>
-    </row>
-    <row r="73" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="27">
-        <v>8</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H73" s="51"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="51"/>
-    </row>
-    <row r="74" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="D74" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" s="27">
-        <v>1</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H74" s="54"/>
-      <c r="I74" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J74" s="50"/>
-    </row>
-    <row r="75" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="27">
-        <v>2</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H75" s="51"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="51"/>
-    </row>
-    <row r="76" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="27">
-        <v>3</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H76" s="51"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="51"/>
-    </row>
-    <row r="77" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="27">
-        <v>4</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H77" s="51"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="51"/>
-    </row>
-    <row r="78" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="27">
-        <v>5</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H78" s="51"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="51"/>
-    </row>
-    <row r="79" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="27">
-        <v>6</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H79" s="51"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="51"/>
-    </row>
-    <row r="80" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="51"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="27">
-        <v>7</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H80" s="51"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="51"/>
-    </row>
-    <row r="81" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="27">
-        <v>8</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H81" s="51"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="51"/>
-    </row>
-    <row r="82" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B82" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="27">
-        <v>1</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H82" s="54"/>
-      <c r="I82" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J82" s="50"/>
-    </row>
-    <row r="83" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="27">
-        <v>2</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H83" s="51"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="51"/>
-    </row>
-    <row r="84" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="27">
-        <v>3</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H84" s="51"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="51"/>
-    </row>
-    <row r="85" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="51"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="27">
-        <v>4</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H85" s="51"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="51"/>
-    </row>
-    <row r="86" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="27">
-        <v>5</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H86" s="51"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="51"/>
-    </row>
-    <row r="87" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="27">
-        <v>6</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H87" s="51"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="51"/>
-    </row>
-    <row r="88" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="27">
-        <v>7</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H88" s="51"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="51"/>
-    </row>
-    <row r="89" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="27">
-        <v>8</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H89" s="51"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="51"/>
-    </row>
-    <row r="90" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="B90" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C90" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="D90" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="E90" s="27">
-        <v>1</v>
-      </c>
-      <c r="F90" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="G90" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="H90" s="54"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="50"/>
-    </row>
-    <row r="91" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="47"/>
-      <c r="E91" s="27">
-        <v>2</v>
-      </c>
-      <c r="F91" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H91" s="51"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="51"/>
-    </row>
-    <row r="92" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="27">
-        <v>3</v>
-      </c>
-      <c r="F92" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="G92" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H92" s="51"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="51"/>
-    </row>
-    <row r="93" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="51"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="27">
-        <v>4</v>
-      </c>
-      <c r="F93" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="G93" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="H93" s="51"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="51"/>
-    </row>
-    <row r="94" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="27">
-        <v>5</v>
-      </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="58"/>
-    </row>
-    <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="15">
-        <v>1</v>
-      </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="71"/>
-      <c r="J95" s="50"/>
-    </row>
-    <row r="96" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="58"/>
-      <c r="B96" s="67"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="15">
-        <v>2</v>
-      </c>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="58"/>
-    </row>
-    <row r="97" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="15">
-        <v>1</v>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="50"/>
-    </row>
-    <row r="98" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="58"/>
-      <c r="B98" s="67"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="15">
-        <v>2</v>
-      </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="58"/>
-    </row>
-    <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="11">
-        <v>1</v>
-      </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="50"/>
-    </row>
-    <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="14">
-        <v>2</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="51"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="82"/>
+      <c r="J100" s="54"/>
     </row>
     <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="51"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
+      <c r="A101" s="53"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
       <c r="E101" s="14">
+        <v>2</v>
+      </c>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="53"/>
+    </row>
+    <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="53"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="14">
         <v>3</v>
       </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="51"/>
-    </row>
-    <row r="102" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="58"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="14">
+      <c r="F102" s="4"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="53"/>
+    </row>
+    <row r="103" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="55"/>
+      <c r="B103" s="79"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="14">
         <v>4</v>
-      </c>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="67"/>
-      <c r="J102" s="58"/>
-    </row>
-    <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="52"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="11">
-        <v>1</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="68"/>
-      <c r="J103" s="50"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="79"/>
+      <c r="J103" s="55"/>
     </row>
     <row r="104" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="51"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="14">
-        <v>2</v>
+      <c r="A104" s="65"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="11">
+        <v>1</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
-      <c r="H104" s="51"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="51"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="82"/>
+      <c r="J104" s="54"/>
     </row>
     <row r="105" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="51"/>
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
       <c r="E105" s="14">
+        <v>2</v>
+      </c>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="53"/>
+    </row>
+    <row r="106" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="53"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="14">
         <v>3</v>
       </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="47"/>
-      <c r="J105" s="51"/>
-    </row>
-    <row r="106" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="58"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="14">
+      <c r="F106" s="12"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="53"/>
+    </row>
+    <row r="107" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="55"/>
+      <c r="B107" s="79"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="14">
         <v>4</v>
-      </c>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="58"/>
-      <c r="I106" s="67"/>
-      <c r="J106" s="58"/>
-    </row>
-    <row r="107" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53"/>
-      <c r="E107" s="11">
-        <v>1</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="68"/>
-      <c r="J107" s="50"/>
-    </row>
-    <row r="108" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="51"/>
-      <c r="B108" s="47"/>
-      <c r="C108" s="47"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="14">
-        <v>2</v>
+      <c r="H107" s="55"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="55"/>
+    </row>
+    <row r="108" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="65"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="11">
+        <v>1</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="47"/>
-      <c r="J108" s="51"/>
-    </row>
-    <row r="109" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
-      <c r="B109" s="47"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="82"/>
+      <c r="J108" s="54"/>
+    </row>
+    <row r="109" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="53"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="57"/>
       <c r="E109" s="14">
+        <v>2</v>
+      </c>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="57"/>
+      <c r="J109" s="53"/>
+    </row>
+    <row r="110" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="53"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="14">
         <v>3</v>
       </c>
-      <c r="F109" s="12"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="51"/>
-    </row>
-    <row r="110" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="58"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="14">
+      <c r="F110" s="12"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="53"/>
+    </row>
+    <row r="111" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="55"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="14">
         <v>4</v>
-      </c>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="58"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="58"/>
-    </row>
-    <row r="111" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="52"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="11">
-        <v>1</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="68"/>
-      <c r="J111" s="50"/>
-    </row>
-    <row r="112" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="51"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="14">
-        <v>2</v>
+      <c r="H111" s="55"/>
+      <c r="I111" s="79"/>
+      <c r="J111" s="55"/>
+    </row>
+    <row r="112" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="65"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="11">
+        <v>1</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="47"/>
-      <c r="J112" s="51"/>
-    </row>
-    <row r="113" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="51"/>
-      <c r="B113" s="47"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
+      <c r="H112" s="52"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="54"/>
+    </row>
+    <row r="113" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="53"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="14">
+        <v>2</v>
+      </c>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="53"/>
+    </row>
+    <row r="114" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="53"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="14">
         <v>3</v>
-      </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="47"/>
-      <c r="J113" s="51"/>
-    </row>
-    <row r="114" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="58"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="14">
-        <v>4</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="58"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="58"/>
-    </row>
-    <row r="115" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="16"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="20"/>
+      <c r="H114" s="53"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="53"/>
+    </row>
+    <row r="115" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="55"/>
+      <c r="B115" s="79"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="14">
+        <v>4</v>
+      </c>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="72"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="55"/>
     </row>
     <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="16"/>
@@ -4227,7 +4459,7 @@
       <c r="G116" s="19"/>
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
-      <c r="J116" s="60"/>
+      <c r="J116" s="83"/>
     </row>
     <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="16"/>
@@ -4239,7 +4471,7 @@
       <c r="G117" s="19"/>
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
-      <c r="J117" s="60"/>
+      <c r="J117" s="71"/>
     </row>
     <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="16"/>
@@ -4251,7 +4483,7 @@
       <c r="G118" s="19"/>
       <c r="H118" s="20"/>
       <c r="I118" s="20"/>
-      <c r="J118" s="60"/>
+      <c r="J118" s="71"/>
     </row>
     <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="16"/>
@@ -4263,7 +4495,7 @@
       <c r="G119" s="19"/>
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
-      <c r="J119" s="37"/>
+      <c r="J119" s="71"/>
     </row>
     <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="16"/>
@@ -15731,6 +15963,8 @@
       <c r="C1075" s="19"/>
       <c r="D1075" s="19"/>
       <c r="E1075" s="20"/>
+      <c r="F1075" s="19"/>
+      <c r="G1075" s="19"/>
       <c r="H1075" s="20"/>
       <c r="I1075" s="20"/>
       <c r="J1075" s="37"/>
@@ -15745,71 +15979,78 @@
       <c r="I1076" s="20"/>
       <c r="J1076" s="37"/>
     </row>
+    <row r="1077" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1077" s="16"/>
+      <c r="B1077" s="20"/>
+      <c r="C1077" s="19"/>
+      <c r="D1077" s="19"/>
+      <c r="E1077" s="20"/>
+      <c r="H1077" s="20"/>
+      <c r="I1077" s="20"/>
+      <c r="J1077" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="190">
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="J107:J110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="H111:H114"/>
-    <mergeCell ref="I111:I114"/>
-    <mergeCell ref="J111:J114"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="H107:H110"/>
-    <mergeCell ref="I107:I110"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="I99:I102"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="I90:I94"/>
-    <mergeCell ref="J90:J94"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
+  <mergeCells count="184">
+    <mergeCell ref="J116:J119"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="J112:J115"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="I104:I107"/>
+    <mergeCell ref="J104:J107"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
@@ -15818,151 +16059,148 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="H34:H41"/>
-    <mergeCell ref="I34:I41"/>
-    <mergeCell ref="J34:J41"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I26:I33"/>
-    <mergeCell ref="J26:J33"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="H26:H33"/>
-    <mergeCell ref="I42:I49"/>
-    <mergeCell ref="J42:J49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="H50:H57"/>
-    <mergeCell ref="I50:I57"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="H42:H49"/>
-    <mergeCell ref="I58:I65"/>
-    <mergeCell ref="J58:J65"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="C66:C73"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="H66:H73"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="J66:J73"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="I52:I59"/>
+    <mergeCell ref="J52:J59"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="I60:I67"/>
+    <mergeCell ref="J60:J67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="H68:H75"/>
+    <mergeCell ref="I68:I75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="I76:I83"/>
+    <mergeCell ref="J76:J83"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="H84:H91"/>
+    <mergeCell ref="I84:I91"/>
+    <mergeCell ref="J84:J91"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D76:D83"/>
+    <mergeCell ref="H76:H83"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J18:J19"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I74:I81"/>
-    <mergeCell ref="J74:J81"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="H82:H89"/>
-    <mergeCell ref="I82:I89"/>
-    <mergeCell ref="J82:J89"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="H74:H81"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I15:I17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J90 J95 J97 J99 J103 J107 J111 J6 J26 J8 J18 J20 J22 J24 J34 J42 J50 J58 J66 J10 J12 J14 J16 J74 J82" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J3:J4 J92 J26 J84 J100 J104 J108 J112 J76 J22 J68 J7 J12 J9:J10 J24 J28 J36 J44 J52 J60 J14 J16 J18 J20 J96">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F8" r:id="rId3" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F26" r:id="rId4" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F18" r:id="rId5" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F20" r:id="rId6" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F22" r:id="rId7" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F24" r:id="rId8" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F34" r:id="rId9" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F42" r:id="rId10" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F50" r:id="rId11" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F58" r:id="rId12" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F66" r:id="rId13" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F10" r:id="rId14" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F12" r:id="rId15" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F14" r:id="rId16" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F16" r:id="rId17" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F74" r:id="rId18" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F82" r:id="rId19" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId1" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F7" r:id="rId2" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F9" r:id="rId3" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F28" r:id="rId4" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F20" r:id="rId5" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F22" r:id="rId6" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F24" r:id="rId7" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F26" r:id="rId8" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F36" r:id="rId9" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F44" r:id="rId10" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F52" r:id="rId11" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F60" r:id="rId12" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F68" r:id="rId13" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F12" r:id="rId14" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F14" r:id="rId15" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F16" r:id="rId16" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F18" r:id="rId17" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F76" r:id="rId18" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
+    <hyperlink ref="F84" r:id="rId19" display="Ir a la URL: https://ctd-app-resto.herokuapp.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -15970,20 +16208,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:G5"/>
+      <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -15998,38 +16236,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="57" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="70" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -16039,21 +16277,21 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="60"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3">
@@ -16065,21 +16303,21 @@
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="47"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -16089,15 +16327,15 @@
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="51"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -16107,15 +16345,15 @@
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -16125,15 +16363,15 @@
       <c r="G6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="51"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="67"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -16143,21 +16381,21 @@
       <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3">
@@ -16169,21 +16407,21 @@
       <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
@@ -16193,15 +16431,15 @@
       <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="51"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="3">
         <v>3</v>
       </c>
@@ -16211,15 +16449,15 @@
       <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="51"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="3">
         <v>4</v>
       </c>
@@ -16229,15 +16467,15 @@
       <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="51"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="3">
         <v>5</v>
       </c>
@@ -16247,21 +16485,21 @@
       <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="58"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3">
@@ -16273,21 +16511,21 @@
       <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="3">
         <v>2</v>
       </c>
@@ -16297,15 +16535,15 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="51"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="3">
         <v>3</v>
       </c>
@@ -16315,15 +16553,15 @@
       <c r="G15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="51"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="47"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="3">
         <v>4</v>
       </c>
@@ -16333,15 +16571,15 @@
       <c r="G16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="51"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="67"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="3">
         <v>5</v>
       </c>
@@ -16351,21 +16589,21 @@
       <c r="G17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="58"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="7">
@@ -16377,21 +16615,21 @@
       <c r="G18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="7">
         <v>2</v>
       </c>
@@ -16401,21 +16639,21 @@
       <c r="G19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="58"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="7">
@@ -16427,21 +16665,21 @@
       <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="7">
         <v>2</v>
       </c>
@@ -16451,21 +16689,21 @@
       <c r="G21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="58"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="9">
@@ -16477,21 +16715,21 @@
       <c r="G22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="68" t="s">
+      <c r="I22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="10">
         <v>2</v>
       </c>
@@ -16501,15 +16739,15 @@
       <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="51"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="10">
         <v>3</v>
       </c>
@@ -16519,15 +16757,15 @@
       <c r="G24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="51"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="10">
         <v>4</v>
       </c>
@@ -16537,21 +16775,21 @@
       <c r="G25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="58"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="9">
@@ -16563,21 +16801,21 @@
       <c r="G26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="68" t="s">
+      <c r="I26" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="10">
         <v>2</v>
       </c>
@@ -16587,15 +16825,15 @@
       <c r="G27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="51"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="10">
         <v>3</v>
       </c>
@@ -16605,15 +16843,15 @@
       <c r="G28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="51"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10">
         <v>4</v>
       </c>
@@ -16623,21 +16861,21 @@
       <c r="G29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="58"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="11">
@@ -16649,21 +16887,21 @@
       <c r="G30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="68" t="s">
+      <c r="I30" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="14">
         <v>2</v>
       </c>
@@ -16673,15 +16911,15 @@
       <c r="G31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="51"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="14">
         <v>3</v>
       </c>
@@ -16691,15 +16929,15 @@
       <c r="G32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="51"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="14">
         <v>4</v>
       </c>
@@ -16709,21 +16947,21 @@
       <c r="G33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="58"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="11">
@@ -16735,21 +16973,21 @@
       <c r="G34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="54" t="s">
+      <c r="H34" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="68" t="s">
+      <c r="I34" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="14">
         <v>2</v>
       </c>
@@ -16759,15 +16997,15 @@
       <c r="G35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="51"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="14">
         <v>3</v>
       </c>
@@ -16777,15 +17015,15 @@
       <c r="G36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="51"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="51"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="14">
         <v>4</v>
       </c>
@@ -16795,9 +17033,9 @@
       <c r="G37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="58"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="55"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
@@ -16809,7 +17047,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="72"/>
+      <c r="J38" s="83"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
@@ -16821,7 +17059,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
-      <c r="J39" s="60"/>
+      <c r="J39" s="71"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
@@ -16833,7 +17071,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
-      <c r="J40" s="60"/>
+      <c r="J40" s="71"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
@@ -16845,7 +17083,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="60"/>
+      <c r="J41" s="71"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
@@ -28359,6 +28597,8 @@
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="J38:J41"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
@@ -28375,8 +28615,6 @@
     <mergeCell ref="J22:J25"/>
     <mergeCell ref="H34:H37"/>
     <mergeCell ref="I34:I37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="I1:I2"/>
@@ -28386,6 +28624,7 @@
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="D22:D25"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="C26:C29"/>
@@ -28402,7 +28641,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J8:J12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B13:B17"/>
@@ -28419,49 +28657,52 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J13 J18 J20 J22 J26 J30 J34" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J13 J18 J20 J22 J26 J30 J34">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F18" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F20" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F22" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="F26" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="F30" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="F34" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4"/>
+    <hyperlink ref="F20" r:id="rId5"/>
+    <hyperlink ref="F22" r:id="rId6"/>
+    <hyperlink ref="F26" r:id="rId7"/>
+    <hyperlink ref="F30" r:id="rId8"/>
+    <hyperlink ref="F34" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -28480,142 +28721,472 @@
       <c r="F3" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
-        <v>43899</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>11</v>
+        <v>44860</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>43899</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>84</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
-        <v>43899</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>51</v>
+        <v>44860</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="D15" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="D16" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <v>44860</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="26" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C10">
+  <mergeCells count="1">
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C4:C24">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10">
+  <conditionalFormatting sqref="C4:C24">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10">
+  <conditionalFormatting sqref="C4:C24">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10">
+  <conditionalFormatting sqref="C4:C24">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10">
+  <conditionalFormatting sqref="C4:C24">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C10" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C24">
       <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B4" location="Template - CP!A3:A7" display="PE1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B5" location="Template - CP!A18:A19" display="TD1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E5" location="Defectos!B4:B5" display="Bug-001" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B6" location="Template - CP!A22:A25" display="TE1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E26" location="Defectos!B4:B5" display="Bug-001"/>
+    <hyperlink ref="B4" location="'Proyecto Integrador'!A3" display="LG1"/>
+    <hyperlink ref="B5" location="'Proyecto Integrador'!A6" display="LG2"/>
+    <hyperlink ref="B6" location="'Proyecto Integrador'!A8" display="LG3"/>
+    <hyperlink ref="B7" location="'Proyecto Integrador'!A10" display="EH1"/>
+    <hyperlink ref="B8" location="'Proyecto Integrador'!A12" display="EH2"/>
+    <hyperlink ref="B9" location="'Proyecto Integrador'!A14" display="EH3"/>
+    <hyperlink ref="B10" location="'Proyecto Integrador'!A16" display="BG1"/>
+    <hyperlink ref="B11" location="'Proyecto Integrador'!A18" display="RS1"/>
+    <hyperlink ref="B12" location="'Proyecto Integrador'!A20" display="RS2"/>
+    <hyperlink ref="B13" location="'Proyecto Integrador'!A22" display="RS3"/>
+    <hyperlink ref="B14" location="'Proyecto Integrador'!A24" display="RS4"/>
+    <hyperlink ref="B15" location="'Proyecto Integrador'!A26" display="RG1"/>
+    <hyperlink ref="B16" location="'Proyecto Integrador'!A34" display="RG2"/>
+    <hyperlink ref="B17" location="'Proyecto Integrador'!A42" display="RG3"/>
+    <hyperlink ref="B18" location="'Proyecto Integrador'!A50" display="RG4"/>
+    <hyperlink ref="B19" location="'Proyecto Integrador'!A58" display="RG5"/>
+    <hyperlink ref="B20" location="'Proyecto Integrador'!A66" display="RG6"/>
+    <hyperlink ref="B21" location="'Proyecto Integrador'!A74" display="RG7"/>
+    <hyperlink ref="B22" location="'Proyecto Integrador'!A82" display="RG8"/>
+    <hyperlink ref="B23" location="'Proyecto Integrador'!A90" display="BB1"/>
+    <hyperlink ref="B24" location="'Proyecto Integrador'!A1" display="BC1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -28625,11 +29196,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -28646,7 +29217,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>79</v>
@@ -28656,7 +29227,7 @@
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -28666,7 +29237,7 @@
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -28676,7 +29247,7 @@
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -28686,7 +29257,7 @@
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -28696,7 +29267,7 @@
       <c r="A8" s="31"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -28706,7 +29277,7 @@
       <c r="A9" s="31"/>
       <c r="B9" s="32"/>
       <c r="C9" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -28755,7 +29326,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C11" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C11">
       <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28764,821 +29335,821 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B18" sqref="B18:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="96"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="53"/>
+      <c r="B4" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="85"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="80" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="77" t="s">
+      <c r="H4" s="75"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="87" t="s">
+      <c r="K4" s="75"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="87" t="s">
+      <c r="H5" s="75"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="51"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="88" t="s">
+      <c r="K5" s="75"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="53"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="53"/>
+      <c r="B7" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="88" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="51"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="51"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="80" t="s">
+      <c r="E7" s="86"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74" t="s">
+      <c r="H7" s="86"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="77" t="s">
+      <c r="K7" s="86"/>
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="53"/>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="53"/>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="53"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="53"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="53"/>
+      <c r="B11" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74" t="s">
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="53"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="53"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="53"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="53"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="53"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="53"/>
+      <c r="B14" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="51"/>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="51"/>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="51"/>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="51"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="77" t="s">
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="53"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="53"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="53"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="53"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="53"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="53"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="53"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="53"/>
+      <c r="B18" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="51"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="51"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="51"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="77" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="53"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="53"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="53"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="53"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="53"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="53"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="53"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="53"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="53"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="53"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="53"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="53"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="53"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="53"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="53"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="51"/>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="51"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="77" t="s">
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="53"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="53"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="53"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="53"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="53"/>
+      <c r="B33" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="51"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="51"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="51"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="51"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="51"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="51"/>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="51"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="51"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="51"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="51"/>
-    </row>
-    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="51"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="77" t="s">
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="53"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="53"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="53"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="53"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="53"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="53"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="53"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="53"/>
+      <c r="B37" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="51"/>
-    </row>
-    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="51"/>
-    </row>
-    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="51"/>
-    </row>
-    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="51"/>
-    </row>
-    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
-      <c r="B33" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="51"/>
-    </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="51"/>
-    </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="51"/>
-    </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="51"/>
-    </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="51"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="51"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="51"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="51"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="51"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="51"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="51"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="51"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="51"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="53"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="51"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="53"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="51"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="53"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="51"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="51"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="53"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="51"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="53"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="51"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="53"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="51"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="53"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="51"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="53"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="51"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="53"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="58"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="55"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
@@ -29843,10 +30414,10 @@
     <mergeCell ref="G7:H8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G5" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G5">
       <formula1>"BAJA,MEDIA,ALTA,CRITICA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J5" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J5">
       <formula1>"BAJA,MEDIA,ALTA,CRITICA,BLOQUEANTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29856,7 +30427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -29866,814 +30437,814 @@
       <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="12.5703125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="A1" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="85"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="87" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="86"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="87" t="s">
+      <c r="H5" s="75"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="51"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="51"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="51"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="77" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="51"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="86"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="51"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="51"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="51"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="51"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="53"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="53"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="53"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="53"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="53"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="53"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="53"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="53"/>
+      <c r="B18" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="51"/>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="51"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="51"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="51"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="51"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="51"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="51"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="51"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="51"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="51"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="51"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="51"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="51"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="51"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="51"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="51"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="53"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="51"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="53"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
-      <c r="B33" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="51"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="53"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="51"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="51"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="53"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="51"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="51"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="51"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="51"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="51"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="51"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="51"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="51"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="51"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="51"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="53"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="51"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="53"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="51"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="53"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="51"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="51"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="53"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="51"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="53"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="51"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="53"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="51"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="53"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="51"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="53"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="51"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="53"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="58"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="55"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
@@ -30938,10 +31509,10 @@
     <mergeCell ref="B7:B8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="J5" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J5">
       <formula1>"BAJA,MEDIA,ALTA,CRITICA,BLOQUEANTE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G5">
       <formula1>"BAJA,MEDIA,ALTA,CRITICA"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/Tabla testeos.xlsx
+++ b/tests/Tabla testeos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\dh_ejercicios\Q4\PI\grupo-05\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="5160" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto Integrador" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="251">
   <si>
     <t>ID</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>Bug-001</t>
@@ -915,9 +912,6 @@
     <t>En campo mail ingreso " Juan.perezmimail.com"</t>
   </si>
   <si>
-    <t>Efectua validación. Como las credenciales son incorrectas, aparece un texto que dice : "Por favor vuelva a intentarlo, sus credenciales son inválidas".</t>
-  </si>
-  <si>
     <t>RG3</t>
   </si>
   <si>
@@ -943,9 +937,6 @@
   </si>
   <si>
     <t>Registro 5</t>
-  </si>
-  <si>
-    <t>Se efectua un registro donde el email es incorrecto por falta de " com " en la dirección de mail. ( haremos otras terminaciones como gov, org, etc.?)</t>
   </si>
   <si>
     <t>Se efectua un registro donde la contraseña no coincide con la validada</t>
@@ -1116,9 +1107,6 @@
     <t>Redirige a pagina Instagram de Revolt Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve"> Finalizado - ver playground 26: almacenar un correo y contraseña de prueba en un objeto y comparar con esots datos ingresados !!</t>
-  </si>
-  <si>
     <t>RG8</t>
   </si>
   <si>
@@ -1149,9 +1137,6 @@
     <t>En el bloque de Categorias selecciono la cuarta Categoria de vehículo</t>
   </si>
   <si>
-    <t>Carga info pero no hace Login</t>
-  </si>
-  <si>
     <t>Se visualiza la página de inicio que contiene un campo "correo electrónico" y otro contraseña</t>
   </si>
   <si>
@@ -1167,22 +1152,46 @@
     <t>Desde el bloque general puedo cerrar dicho bloque.</t>
   </si>
   <si>
-    <t>REVISAR QUE ES BLOQUE GENERAL</t>
-  </si>
-  <si>
-    <t>Logo presente, no hay red social aun, no redirige.</t>
-  </si>
-  <si>
-    <t>No se pudo hacer por falla de Logueo</t>
-  </si>
-  <si>
     <t>Boton Cambia de color al dar click</t>
   </si>
   <si>
-    <t>Primer categoria funciona, en las demas no se ve el botón aun para seleccionar.</t>
+    <t>Por el momento se trabaja con una sóla pagina + Modal, Pendiente clickeable</t>
   </si>
   <si>
-    <t>Por el momento se trabaja con una sóla pagina + Modal, Pendiente clickeable</t>
+    <t>Efectua validación. No permitir registrar la cuenta</t>
+  </si>
+  <si>
+    <t>Se loguea a pesar de no tener el punto antes del com</t>
+  </si>
+  <si>
+    <t>Se efectua un registro donde el email es incorrecto por falta de " .com " en la dirección de mail. ( haremos otras terminaciones como gov, org, etc.?)</t>
+  </si>
+  <si>
+    <t>Se loguea a pesar de no tener el punto antes del .com</t>
+  </si>
+  <si>
+    <t>Se Registra a pesar de que no coinciden las contraseñas.</t>
+  </si>
+  <si>
+    <t>Registro 8</t>
+  </si>
+  <si>
+    <t>Se registra a pesar de que el nombre no tiene formato de texto.</t>
+  </si>
+  <si>
+    <t>entendemos que bloque general se refiere al Modal de logueo/registro.</t>
+  </si>
+  <si>
+    <t>Se registra a pesar de que el apellido no tiene formato de texto.</t>
+  </si>
+  <si>
+    <t>Logo presente, no hay red social aun, no redirige. NO ES REQUISITO</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finalizado </t>
   </si>
 </sst>
 </file>
@@ -1653,33 +1662,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1687,10 +1680,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1700,6 +1706,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,25 +1735,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1774,15 +1792,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2126,10 +2135,10 @@
   <dimension ref="A1:J1077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2148,38 +2157,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="69" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="73" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2189,2265 +2198,2265 @@
       <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="71"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="54" t="s">
+      <c r="D3" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>117</v>
       </c>
       <c r="E3" s="27">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="103"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="27">
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="67"/>
+        <v>232</v>
+      </c>
+      <c r="H4" s="69"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="27">
         <v>3</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="53"/>
+        <v>118</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="27">
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="53"/>
+        <v>205</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>120</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>121</v>
       </c>
       <c r="E7" s="27">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J7" s="54" t="s">
+      <c r="I7" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="27">
         <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="55"/>
+        <v>148</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>121</v>
+      <c r="C9" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E9" s="27">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H9" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J9" s="54" t="s">
+      <c r="I9" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="78"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="27">
         <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="67"/>
+        <v>232</v>
+      </c>
+      <c r="H10" s="79"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="27">
         <v>3</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="55"/>
+        <v>148</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>179</v>
+      <c r="C12" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>176</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J12" s="54" t="s">
+      <c r="I12" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="27">
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+    </row>
+    <row r="14" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="55"/>
-    </row>
-    <row r="14" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="B14" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>179</v>
+      <c r="C14" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>176</v>
       </c>
       <c r="E14" s="27">
         <v>1</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="J14" s="54" t="s">
+      <c r="I14" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="27">
         <v>2</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="63"/>
+    </row>
+    <row r="16" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="55"/>
-    </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>179</v>
+      <c r="B16" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>176</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="J16" s="54" t="s">
+      <c r="I16" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="27">
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="C18" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="58" t="s">
         <v>193</v>
-      </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="55"/>
-    </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>196</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="J18" s="54" t="s">
+      <c r="I18" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="57"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="27">
         <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="55"/>
+        <v>195</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="56"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="27">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J20" s="54" t="s">
+      <c r="I20" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="27">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="57"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="22" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="55"/>
-    </row>
-    <row r="22" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="56"/>
+      <c r="B22" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="58"/>
       <c r="E22" s="27">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J22" s="54" t="s">
+      <c r="I22" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="27">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="55"/>
+        <v>219</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="56"/>
+      <c r="A24" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="58"/>
       <c r="E24" s="27">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J24" s="54" t="s">
+      <c r="I24" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="57"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="27">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="55"/>
+        <v>220</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="56"/>
+      <c r="A26" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="58"/>
       <c r="E26" s="27">
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J26" s="54" t="s">
+      <c r="I26" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="57"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="27">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="55"/>
+        <v>221</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>121</v>
+      <c r="C28" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E28" s="27">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="J28" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="57"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="27">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="57"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="27">
         <v>3</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="67"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="62"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="57"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="27">
         <v>4</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="67"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="62"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="57"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="27">
         <v>5</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="67"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="62"/>
+        <v>149</v>
+      </c>
+      <c r="H32" s="66"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="57"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="27">
         <v>6</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="67"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="H33" s="66"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="57"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="27">
         <v>7</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="H34" s="66"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" s="39" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="57"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="27">
         <v>8</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" s="68"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="63"/>
+        <v>151</v>
+      </c>
+      <c r="H35" s="67"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="C36" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>121</v>
+      <c r="D36" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E36" s="27">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="J36" s="54" t="s">
+      <c r="I36" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="57"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="27">
         <v>2</v>
       </c>
       <c r="F37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="62"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="57"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="27">
         <v>3</v>
       </c>
       <c r="F38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="62"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="57"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="27">
         <v>4</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="62"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="57"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="27">
         <v>5</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="62"/>
+        <v>149</v>
+      </c>
+      <c r="H40" s="57"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="57"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="27">
         <v>6</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="H41" s="57"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="57"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="27">
         <v>7</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="62"/>
-    </row>
-    <row r="43" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="57"/>
+        <v>150</v>
+      </c>
+      <c r="H42" s="57"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="54"/>
+    </row>
+    <row r="43" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="27">
         <v>8</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" s="57"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="55"/>
+    </row>
+    <row r="44" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="63"/>
-    </row>
-    <row r="44" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
+      <c r="C44" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>121</v>
+      <c r="D44" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E44" s="27">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H44" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="J44" s="54" t="s">
+      <c r="I44" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J44" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="57"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="27">
         <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="62"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="57"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="27">
         <v>3</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="53"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="57"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="27">
         <v>4</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H47" s="53"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="62"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="57"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="27">
         <v>5</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" s="53"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="62"/>
+        <v>149</v>
+      </c>
+      <c r="H48" s="57"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="57"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="27">
         <v>6</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H49" s="53"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="H49" s="57"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="57"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="27">
         <v>7</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="53"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="62"/>
-    </row>
-    <row r="51" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="57"/>
+        <v>150</v>
+      </c>
+      <c r="H50" s="57"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="54"/>
+    </row>
+    <row r="51" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="27">
         <v>8</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H51" s="53"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="63"/>
+        <v>239</v>
+      </c>
+      <c r="H51" s="57"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="55"/>
     </row>
     <row r="52" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>121</v>
+      <c r="A52" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E52" s="27">
         <v>1</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H52" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="H52" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="J52" s="54" t="s">
+      <c r="I52" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J52" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="57"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="27">
         <v>2</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G53" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="53"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="62"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="57"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="27">
         <v>3</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H54" s="53"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="62"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="57"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="27">
         <v>4</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H55" s="53"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="62"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="57"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="27">
         <v>5</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H56" s="53"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="62"/>
+        <v>149</v>
+      </c>
+      <c r="H56" s="57"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="54"/>
     </row>
     <row r="57" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="57"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="27">
         <v>6</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H57" s="53"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="H57" s="57"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="54"/>
     </row>
     <row r="58" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="57"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="27">
         <v>7</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H58" s="53"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="62"/>
-    </row>
-    <row r="59" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="57"/>
+        <v>150</v>
+      </c>
+      <c r="H58" s="57"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="54"/>
+    </row>
+    <row r="59" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="27">
         <v>8</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H59" s="53"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="63"/>
+        <v>239</v>
+      </c>
+      <c r="H59" s="57"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="55"/>
     </row>
     <row r="60" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="56" t="s">
-        <v>121</v>
+      <c r="D60" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E60" s="27">
         <v>1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H60" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="H60" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="J60" s="54" t="s">
+      <c r="I60" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J60" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="57"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="27">
         <v>2</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H61" s="53"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="62"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="54"/>
     </row>
     <row r="62" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="53"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="57"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="27">
         <v>3</v>
       </c>
       <c r="F62" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="53"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="62"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="54"/>
     </row>
     <row r="63" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="57"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="59"/>
       <c r="E63" s="27">
         <v>4</v>
       </c>
       <c r="F63" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H63" s="53"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="62"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="54"/>
     </row>
     <row r="64" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="57"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="27">
         <v>5</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" s="53"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="62"/>
+        <v>149</v>
+      </c>
+      <c r="H64" s="57"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="54"/>
     </row>
     <row r="65" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="57"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="59"/>
       <c r="E65" s="27">
         <v>6</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H65" s="53"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="H65" s="57"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="54"/>
     </row>
     <row r="66" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="57"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="27">
         <v>7</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H66" s="53"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="62"/>
-    </row>
-    <row r="67" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="57"/>
+        <v>150</v>
+      </c>
+      <c r="H66" s="57"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="54"/>
+    </row>
+    <row r="67" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="59"/>
       <c r="E67" s="27">
         <v>8</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H67" s="53"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="63"/>
+        <v>239</v>
+      </c>
+      <c r="H67" s="57"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="55"/>
     </row>
     <row r="68" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="56" t="s">
-        <v>121</v>
+      <c r="A68" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E68" s="27">
         <v>1</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H68" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="H68" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="J68" s="54" t="s">
+      <c r="I68" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J68" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="57"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="27">
         <v>2</v>
       </c>
       <c r="F69" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G69" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H69" s="53"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="62"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="57"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="27">
         <v>3</v>
       </c>
       <c r="F70" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G70" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="53"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="62"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="57"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="59"/>
       <c r="E71" s="27">
         <v>4</v>
       </c>
       <c r="F71" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G71" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H71" s="53"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="62"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="57"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="27">
         <v>5</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H72" s="53"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="62"/>
+        <v>149</v>
+      </c>
+      <c r="H72" s="57"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="54"/>
     </row>
     <row r="73" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="57"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="27">
         <v>6</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H73" s="53"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="H73" s="57"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="53"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="57"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="27">
         <v>7</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H74" s="53"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="62"/>
-    </row>
-    <row r="75" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="57"/>
+        <v>150</v>
+      </c>
+      <c r="H74" s="57"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="54"/>
+    </row>
+    <row r="75" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="59"/>
       <c r="E75" s="27">
         <v>8</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H75" s="53"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="63"/>
+        <v>239</v>
+      </c>
+      <c r="H75" s="57"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="55"/>
     </row>
     <row r="76" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" s="54" t="s">
+      <c r="A76" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="B76" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="D76" s="56" t="s">
-        <v>121</v>
+      <c r="C76" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E76" s="27">
         <v>1</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H76" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="H76" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="J76" s="54" t="s">
+      <c r="I76" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J76" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="57"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="27">
         <v>2</v>
       </c>
       <c r="F77" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G77" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H77" s="53"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="62"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="54"/>
     </row>
     <row r="78" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="53"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="57"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="27">
         <v>3</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H78" s="53"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="62"/>
+        <v>144</v>
+      </c>
+      <c r="H78" s="57"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="54"/>
     </row>
     <row r="79" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="57"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="59"/>
       <c r="E79" s="27">
         <v>4</v>
       </c>
       <c r="F79" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H79" s="53"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="62"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="54"/>
     </row>
     <row r="80" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="53"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="57"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="27">
         <v>5</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H80" s="53"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="62"/>
+        <v>149</v>
+      </c>
+      <c r="H80" s="57"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="57"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="27">
         <v>6</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H81" s="53"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="H81" s="57"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="54"/>
     </row>
     <row r="82" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="57"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="59"/>
       <c r="E82" s="27">
         <v>7</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H82" s="53"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="62"/>
-    </row>
-    <row r="83" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="57"/>
+        <v>150</v>
+      </c>
+      <c r="H82" s="57"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="54"/>
+    </row>
+    <row r="83" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="27">
         <v>8</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H83" s="53"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="63"/>
+        <v>239</v>
+      </c>
+      <c r="H83" s="57"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="55"/>
     </row>
     <row r="84" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="D84" s="56" t="s">
-        <v>121</v>
+      <c r="A84" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E84" s="27">
         <v>1</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H84" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="H84" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I84" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="J84" s="54" t="s">
+      <c r="I84" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J84" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="57"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="59"/>
       <c r="E85" s="27">
         <v>2</v>
       </c>
       <c r="F85" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G85" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H85" s="53"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="62"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="54"/>
     </row>
     <row r="86" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="57"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="59"/>
       <c r="E86" s="27">
         <v>3</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H86" s="53"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="62"/>
+        <v>144</v>
+      </c>
+      <c r="H86" s="57"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="54"/>
     </row>
     <row r="87" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="57"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="59"/>
       <c r="E87" s="27">
         <v>4</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H87" s="53"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="62"/>
+        <v>146</v>
+      </c>
+      <c r="H87" s="57"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="54"/>
     </row>
     <row r="88" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="53"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="57"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="59"/>
       <c r="E88" s="27">
         <v>5</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H88" s="53"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="62"/>
+        <v>149</v>
+      </c>
+      <c r="H88" s="57"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="54"/>
     </row>
     <row r="89" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="53"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="57"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="59"/>
       <c r="E89" s="27">
         <v>6</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H89" s="53"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="H89" s="57"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="54"/>
     </row>
     <row r="90" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="53"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="57"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="59"/>
       <c r="E90" s="27">
         <v>7</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H90" s="53"/>
-      <c r="I90" s="61"/>
-      <c r="J90" s="62"/>
-    </row>
-    <row r="91" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="57"/>
+        <v>150</v>
+      </c>
+      <c r="H90" s="57"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="54"/>
+    </row>
+    <row r="91" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="57"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="59"/>
       <c r="E91" s="27">
         <v>8</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H91" s="53"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="63"/>
+        <v>239</v>
+      </c>
+      <c r="H91" s="57"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="55"/>
     </row>
     <row r="92" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="B92" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="C92" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="D92" s="56" t="s">
-        <v>179</v>
+      <c r="A92" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="58" t="s">
+        <v>176</v>
       </c>
       <c r="E92" s="27">
         <v>1</v>
       </c>
       <c r="F92" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="H92" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="H92" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J92" s="54" t="s">
+      <c r="I92" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J92" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="53"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="57"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="59"/>
       <c r="E93" s="27">
         <v>2</v>
       </c>
       <c r="F93" s="42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
+        <v>213</v>
+      </c>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
     </row>
     <row r="94" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="53"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="57"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="27">
         <v>3</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
+        <v>215</v>
+      </c>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
     </row>
     <row r="95" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="53"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="57"/>
+      <c r="A95" s="57"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="82"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="27">
         <v>4</v>
       </c>
       <c r="F95" s="42" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G95" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="H95" s="76"/>
-      <c r="I95" s="76"/>
-      <c r="J95" s="53"/>
+        <v>237</v>
+      </c>
+      <c r="H95" s="82"/>
+      <c r="I95" s="82"/>
+      <c r="J95" s="57"/>
     </row>
     <row r="96" spans="1:10" s="46" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="B96" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="C96" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="D96" s="56" t="s">
-        <v>179</v>
+      <c r="A96" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="58" t="s">
+        <v>176</v>
       </c>
       <c r="E96" s="27">
         <v>1</v>
       </c>
       <c r="F96" s="42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="H96" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="H96" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I96" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J96" s="54" t="s">
+      <c r="I96" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J96" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="57"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="59"/>
       <c r="E97" s="27">
         <v>2</v>
       </c>
       <c r="F97" s="42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
+        <v>227</v>
+      </c>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="57"/>
     </row>
     <row r="98" spans="1:10" s="46" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="57"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="27">
         <v>3</v>
       </c>
       <c r="F98" s="42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
+        <v>227</v>
+      </c>
+      <c r="H98" s="57"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="57"/>
     </row>
     <row r="99" spans="1:10" s="46" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="53"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="57"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="27">
         <v>4</v>
       </c>
       <c r="F99" s="42" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="H99" s="76"/>
-      <c r="I99" s="76"/>
-      <c r="J99" s="53"/>
+        <v>227</v>
+      </c>
+      <c r="H99" s="82"/>
+      <c r="I99" s="82"/>
+      <c r="J99" s="57"/>
     </row>
     <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="65"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="83"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
       <c r="E100" s="11">
         <v>1</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="82"/>
-      <c r="J100" s="54"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="83"/>
+      <c r="J100" s="53"/>
     </row>
     <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="53"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
+      <c r="A101" s="57"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="14">
         <v>2</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="57"/>
-      <c r="J101" s="53"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="57"/>
     </row>
     <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="53"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
       <c r="E102" s="14">
         <v>3</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="57"/>
-      <c r="J102" s="53"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="57"/>
     </row>
     <row r="103" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="55"/>
-      <c r="B103" s="79"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="84"/>
       <c r="E103" s="14">
         <v>4</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="79"/>
-      <c r="J103" s="55"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="84"/>
+      <c r="J103" s="63"/>
     </row>
     <row r="104" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="65"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
       <c r="E104" s="11">
         <v>1</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="82"/>
-      <c r="J104" s="54"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="83"/>
+      <c r="J104" s="53"/>
     </row>
     <row r="105" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="53"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
+      <c r="A105" s="57"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
       <c r="E105" s="14">
         <v>2</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="53"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="57"/>
     </row>
     <row r="106" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="53"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
       <c r="E106" s="14">
         <v>3</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="53"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="57"/>
     </row>
     <row r="107" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="55"/>
-      <c r="B107" s="79"/>
-      <c r="C107" s="79"/>
-      <c r="D107" s="79"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="84"/>
+      <c r="C107" s="84"/>
+      <c r="D107" s="84"/>
       <c r="E107" s="14">
         <v>4</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="79"/>
-      <c r="J107" s="55"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="84"/>
+      <c r="J107" s="63"/>
     </row>
     <row r="108" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="65"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
       <c r="E108" s="11">
         <v>1</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="82"/>
-      <c r="J108" s="54"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="83"/>
+      <c r="J108" s="53"/>
     </row>
     <row r="109" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="53"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
+      <c r="A109" s="57"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
       <c r="E109" s="14">
         <v>2</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="57"/>
-      <c r="J109" s="53"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="57"/>
     </row>
     <row r="110" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="53"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
       <c r="E110" s="14">
         <v>3</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="53"/>
-      <c r="I110" s="57"/>
-      <c r="J110" s="53"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="57"/>
     </row>
     <row r="111" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="55"/>
-      <c r="B111" s="79"/>
-      <c r="C111" s="79"/>
-      <c r="D111" s="79"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="84"/>
+      <c r="C111" s="84"/>
+      <c r="D111" s="84"/>
       <c r="E111" s="14">
         <v>4</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="79"/>
-      <c r="J111" s="55"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="84"/>
+      <c r="J111" s="63"/>
     </row>
     <row r="112" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="65"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="56"/>
+      <c r="A112" s="56"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="58"/>
       <c r="E112" s="11">
         <v>1</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="54"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="83"/>
+      <c r="J112" s="53"/>
     </row>
     <row r="113" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="53"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
       <c r="E113" s="14">
         <v>2</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="57"/>
-      <c r="J113" s="53"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="57"/>
     </row>
     <row r="114" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="53"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
+      <c r="A114" s="57"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="59"/>
       <c r="E114" s="14">
         <v>3</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="53"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="57"/>
     </row>
     <row r="115" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="55"/>
-      <c r="B115" s="79"/>
-      <c r="C115" s="79"/>
-      <c r="D115" s="79"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="84"/>
+      <c r="D115" s="84"/>
       <c r="E115" s="14">
         <v>4</v>
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
-      <c r="H115" s="55"/>
-      <c r="I115" s="79"/>
-      <c r="J115" s="55"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="84"/>
+      <c r="J115" s="63"/>
     </row>
     <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="16"/>
@@ -4459,7 +4468,7 @@
       <c r="G116" s="19"/>
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
-      <c r="J116" s="83"/>
+      <c r="J116" s="85"/>
     </row>
     <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="16"/>
@@ -4471,7 +4480,7 @@
       <c r="G117" s="19"/>
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
-      <c r="J117" s="71"/>
+      <c r="J117" s="74"/>
     </row>
     <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="16"/>
@@ -4483,7 +4492,7 @@
       <c r="G118" s="19"/>
       <c r="H118" s="20"/>
       <c r="I118" s="20"/>
-      <c r="J118" s="71"/>
+      <c r="J118" s="74"/>
     </row>
     <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="16"/>
@@ -4495,7 +4504,7 @@
       <c r="G119" s="19"/>
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
-      <c r="J119" s="71"/>
+      <c r="J119" s="74"/>
     </row>
     <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="16"/>
@@ -16006,7 +16015,6 @@
     <mergeCell ref="D108:D111"/>
     <mergeCell ref="H108:H111"/>
     <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J100:J103"/>
     <mergeCell ref="A104:A107"/>
     <mergeCell ref="B104:B107"/>
     <mergeCell ref="C104:C107"/>
@@ -16020,12 +16028,6 @@
     <mergeCell ref="D100:D103"/>
     <mergeCell ref="H100:H103"/>
     <mergeCell ref="I100:I103"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="I96:I99"/>
     <mergeCell ref="J96:J99"/>
     <mergeCell ref="A92:A95"/>
     <mergeCell ref="B92:B95"/>
@@ -16034,18 +16036,18 @@
     <mergeCell ref="H92:H95"/>
     <mergeCell ref="I92:I95"/>
     <mergeCell ref="J92:J95"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="J100:J103"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="I96:I99"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -16063,6 +16065,13 @@
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J9:J11"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -16075,6 +16084,15 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J16:J17"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
@@ -16084,6 +16102,11 @@
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="C28:C35"/>
@@ -16127,14 +16150,6 @@
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I28:I35"/>
     <mergeCell ref="J28:J35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="I60:I67"/>
-    <mergeCell ref="J60:J67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
     <mergeCell ref="C68:C75"/>
     <mergeCell ref="D68:D75"/>
     <mergeCell ref="H68:H75"/>
@@ -16165,16 +16180,10 @@
     <mergeCell ref="C76:C83"/>
     <mergeCell ref="D76:D83"/>
     <mergeCell ref="H76:H83"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I60:I67"/>
+    <mergeCell ref="J60:J67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="J3:J4 J92 J26 J84 J100 J104 J108 J112 J76 J22 J68 J7 J12 J9:J10 J24 J28 J36 J44 J52 J60 J14 J16 J18 J20 J96">
@@ -16236,38 +16245,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="69" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="73" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -16277,21 +16286,21 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="71"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3">
@@ -16303,21 +16312,21 @@
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -16327,15 +16336,15 @@
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="53"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -16345,15 +16354,15 @@
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="53"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -16363,15 +16372,15 @@
       <c r="G6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="53"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="79"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -16381,21 +16390,21 @@
       <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3">
@@ -16407,21 +16416,21 @@
       <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
@@ -16431,15 +16440,15 @@
       <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="53"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="3">
         <v>3</v>
       </c>
@@ -16449,15 +16458,15 @@
       <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="53"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="3">
         <v>4</v>
       </c>
@@ -16467,15 +16476,15 @@
       <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="53"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="79"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="3">
         <v>5</v>
       </c>
@@ -16485,21 +16494,21 @@
       <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="55"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3">
@@ -16511,21 +16520,21 @@
       <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="3">
         <v>2</v>
       </c>
@@ -16535,15 +16544,15 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="53"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="3">
         <v>3</v>
       </c>
@@ -16553,15 +16562,15 @@
       <c r="G15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="53"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="57"/>
     </row>
     <row r="16" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="3">
         <v>4</v>
       </c>
@@ -16571,15 +16580,15 @@
       <c r="G16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="53"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="79"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="3">
         <v>5</v>
       </c>
@@ -16589,21 +16598,21 @@
       <c r="G17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="55"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="7">
@@ -16615,21 +16624,21 @@
       <c r="G18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="H18" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="81" t="s">
+      <c r="I18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="7">
         <v>2</v>
       </c>
@@ -16639,21 +16648,21 @@
       <c r="G19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="55"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="7">
@@ -16665,21 +16674,21 @@
       <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="81" t="s">
+      <c r="I20" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="7">
         <v>2</v>
       </c>
@@ -16689,21 +16698,21 @@
       <c r="G21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="55"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="9">
@@ -16715,21 +16724,21 @@
       <c r="G22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="82" t="s">
+      <c r="I22" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="54" t="s">
+      <c r="J22" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="10">
         <v>2</v>
       </c>
@@ -16739,15 +16748,15 @@
       <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="53"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="10">
         <v>3</v>
       </c>
@@ -16757,15 +16766,15 @@
       <c r="G24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="53"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="10">
         <v>4</v>
       </c>
@@ -16775,21 +16784,21 @@
       <c r="G25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="55"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="9">
@@ -16801,21 +16810,21 @@
       <c r="G26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="10">
         <v>2</v>
       </c>
@@ -16825,15 +16834,15 @@
       <c r="G27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="53"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="10">
         <v>3</v>
       </c>
@@ -16843,15 +16852,15 @@
       <c r="G28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="53"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="10">
         <v>4</v>
       </c>
@@ -16861,21 +16870,21 @@
       <c r="G29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="55"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="11">
@@ -16887,21 +16896,21 @@
       <c r="G30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="14">
         <v>2</v>
       </c>
@@ -16911,15 +16920,15 @@
       <c r="G31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="53"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="14">
         <v>3</v>
       </c>
@@ -16929,15 +16938,15 @@
       <c r="G32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="53"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="57"/>
     </row>
     <row r="33" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="14">
         <v>4</v>
       </c>
@@ -16947,21 +16956,21 @@
       <c r="G33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="55"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="11">
@@ -16973,21 +16982,21 @@
       <c r="G34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="54" t="s">
+      <c r="J34" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="14">
         <v>2</v>
       </c>
@@ -16997,15 +17006,15 @@
       <c r="G35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="53"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="14">
         <v>3</v>
       </c>
@@ -17015,15 +17024,15 @@
       <c r="G36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="53"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="14">
         <v>4</v>
       </c>
@@ -17033,9 +17042,9 @@
       <c r="G37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="55"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
@@ -17047,7 +17056,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="83"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
@@ -17059,7 +17068,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
-      <c r="J39" s="71"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
@@ -17071,7 +17080,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
-      <c r="J40" s="71"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
@@ -17083,7 +17092,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="71"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
@@ -28681,15 +28690,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="85.5703125" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
   </cols>
@@ -28700,11 +28710,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I2" s="65"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>0</v>
@@ -28721,46 +28731,44 @@
       <c r="F3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="53"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>44860</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>236</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>44860</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>81</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -28768,19 +28776,19 @@
         <v>44860</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -28788,17 +28796,19 @@
         <v>44860</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F7" s="27" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -28806,17 +28816,19 @@
         <v>44860</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F8" s="27" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I8"/>
     </row>
@@ -28825,17 +28837,19 @@
         <v>44860</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F9" s="27" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I9"/>
     </row>
@@ -28844,17 +28858,19 @@
         <v>44860</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F10" s="27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I10"/>
     </row>
@@ -28863,17 +28879,19 @@
         <v>44860</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F11" s="27" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I11"/>
     </row>
@@ -28882,17 +28900,19 @@
         <v>44860</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F12" s="27" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I12"/>
     </row>
@@ -28901,17 +28921,19 @@
         <v>44860</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F13" s="27" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I13"/>
     </row>
@@ -28920,17 +28942,19 @@
         <v>44860</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F14" s="27" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I14"/>
     </row>
@@ -28939,18 +28963,18 @@
         <v>44860</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27" t="s">
-        <v>244</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="27"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -28958,18 +28982,18 @@
         <v>44860</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27" t="s">
-        <v>244</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="27"/>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -28977,17 +29001,19 @@
         <v>44860</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F17" s="27" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I17"/>
     </row>
@@ -28996,17 +29022,19 @@
         <v>44860</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F18" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I18"/>
     </row>
@@ -29015,17 +29043,19 @@
         <v>44860</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F19" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I19"/>
     </row>
@@ -29034,18 +29064,18 @@
         <v>44860</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
-        <v>244</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="27"/>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -29053,17 +29083,19 @@
         <v>44860</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F21" s="27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -29071,17 +29103,19 @@
         <v>44860</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F22" s="27" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -29089,15 +29123,17 @@
         <v>44860</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -29105,22 +29141,22 @@
         <v>44860</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="102" t="s">
-        <v>240</v>
+        <v>224</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="26" t="s">
-        <v>83</v>
+        <v>206</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="39" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="26" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -29158,7 +29194,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E26" location="Defectos!B4:B5" display="Bug-001"/>
+    <hyperlink ref="D39" location="Defectos!B4:B5" display="Bug-001"/>
     <hyperlink ref="B4" location="'Proyecto Integrador'!A3" display="LG1"/>
     <hyperlink ref="B5" location="'Proyecto Integrador'!A6" display="LG2"/>
     <hyperlink ref="B6" location="'Proyecto Integrador'!A8" display="LG3"/>
@@ -29200,7 +29236,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -29217,7 +29253,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>79</v>
@@ -29227,7 +29263,7 @@
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -29237,7 +29273,7 @@
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -29247,7 +29283,7 @@
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -29257,7 +29293,7 @@
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -29267,7 +29303,7 @@
       <c r="A8" s="31"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -29277,7 +29313,7 @@
       <c r="A9" s="31"/>
       <c r="B9" s="32"/>
       <c r="C9" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -29348,808 +29384,808 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="99"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="96"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="91" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="88" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="98" t="s">
+      <c r="H4" s="78"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="98" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="57"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="53"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="99" t="s">
+      <c r="H5" s="78"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="99" t="s">
+      <c r="K5" s="78"/>
+      <c r="L5" s="57"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="57"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="57"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="57"/>
+      <c r="B7" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="75"/>
-      <c r="L5" s="53"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="53"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="91" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="88" t="s">
+      <c r="H7" s="89"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85" t="s">
+      <c r="K7" s="89"/>
+      <c r="L7" s="57"/>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="57"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="57"/>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="57"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="57"/>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="57"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="57"/>
+      <c r="B11" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="86"/>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="53"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="88" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="57"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="57"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="57"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="57"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="57"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="57"/>
+      <c r="B14" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="53"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="53"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="88" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="57"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="57"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="57"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="57"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="57"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="57"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="57"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="57"/>
+      <c r="B18" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="53"/>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="53"/>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="53"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="88" t="s">
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="57"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="57"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="57"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="57"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="57"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="57"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="57"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="57"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="57"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="57"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="57"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="57"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="57"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="57"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="57"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="57"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="57"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="57"/>
+      <c r="B29" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="53"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="53"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="53"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="53"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="53"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="53"/>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="53"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="53"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="53"/>
-    </row>
-    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="53"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="88" t="s">
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="57"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="57"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="57"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="57"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="57"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="57"/>
+      <c r="B33" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="53"/>
-    </row>
-    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="53"/>
-    </row>
-    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="53"/>
-    </row>
-    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="53"/>
-    </row>
-    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="88" t="s">
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="57"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="57"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="57"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="57"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="57"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="57"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="57"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="57"/>
+      <c r="B37" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="53"/>
-    </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="53"/>
-    </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="53"/>
-    </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="53"/>
-    </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="53"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="57"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="53"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="57"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="53"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="57"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="53"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="57"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="53"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="57"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="53"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="57"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="53"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="57"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="53"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="57"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="53"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="57"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="53"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="57"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="53"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="57"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="53"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="57"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="53"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="57"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="53"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="53"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="57"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="53"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="57"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="53"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="57"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="53"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="57"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="53"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="53"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="57"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="55"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="63"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
@@ -30443,808 +30479,808 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="A1" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="96"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="99"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="100" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="98" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="98" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="57"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="53"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="99" t="s">
+      <c r="H5" s="78"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="75"/>
-      <c r="L5" s="53"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="53"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="57"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="88" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="88" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="89"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="89"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="86"/>
-      <c r="L7" s="53"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="53"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="53"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="53"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="88" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="57"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="57"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="57"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="57"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="57"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="57"/>
+      <c r="B14" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="57"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="57"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="57"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="57"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="57"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="57"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="57"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="57"/>
+      <c r="B18" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="53"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="53"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="53"/>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="53"/>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="53"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="53"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="53"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="53"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="57"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="53"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="53"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="53"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="57"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="53"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="57"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="53"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="57"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="53"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="57"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="53"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="57"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="53"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="57"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="53"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="57"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="53"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="57"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="53"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="53"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="57"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="53"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="57"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="53"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="53"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="57"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="53"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="57"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="53"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="57"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="53"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="57"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="53"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="57"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="53"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="57"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="53"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="57"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="53"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="57"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="53"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="57"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="53"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="57"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="53"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="57"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="53"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="57"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="53"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="57"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="53"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="57"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="53"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="57"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="53"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="53"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="57"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="53"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="57"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="53"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="57"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="53"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="57"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="53"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="53"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="57"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="55"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="63"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
